--- a/data/Verifieringssträckor_2021_2022_2023.xlsx
+++ b/data/Verifieringssträckor_2021_2022_2023.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Inventeringsmetodik\Inventeringsmetod-av-Lupin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02995324-5767-4A60-8489-643E50E45757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426CEEC-2D1D-4E82-B9CC-9C627294710A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4650" yWindow="885" windowWidth="21600" windowHeight="11325" xr2:uid="{757E7A49-6D13-405A-93F2-983B4EC261E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{757E7A49-6D13-405A-93F2-983B4EC261E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$232</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="271">
   <si>
     <t>År</t>
   </si>
@@ -618,9 +618,6 @@
     <t>{e0b733eb-a2a9-4769-b90c-648e21d33e31}</t>
   </si>
   <si>
-    <t>{11f297aa-048b-4869-b703-6757e2189507}</t>
-  </si>
-  <si>
     <t>{0956cc8f-a064-4a6e-a35c-c7ee0666943e}</t>
   </si>
   <si>
@@ -630,12 +627,6 @@
     <t>{4b2bb0a9-696c-4ee6-8bbc-f4430db5bb1e}</t>
   </si>
   <si>
-    <t>{59b2be21-1485-47cf-a99e-c95c96a09327}</t>
-  </si>
-  <si>
-    <t>{27fd7538-4af9-48ed-abf8-870b0af51d7a}</t>
-  </si>
-  <si>
     <t>{719ef29f-d24d-484c-99b7-9d83dad1f6ed}</t>
   </si>
   <si>
@@ -663,27 +654,12 @@
     <t>{e276714f-77b5-489b-86a8-6f7b424dd2d3}</t>
   </si>
   <si>
-    <t>{667f2fae-88cc-445d-a92c-a0b0bed877b4}</t>
-  </si>
-  <si>
-    <t>{c8af5e6e-f946-4488-83d6-7a4de4f20955}</t>
-  </si>
-  <si>
-    <t>{23f90904-880a-4ecd-bbef-b9007123c022}</t>
-  </si>
-  <si>
-    <t>{79d80eb4-981c-4845-946a-6ea98a45e93b}</t>
-  </si>
-  <si>
     <t>{e0198801-51cb-4583-bc4e-24aa457ffd91}</t>
   </si>
   <si>
     <t>{1f3e1b7e-e1e1-4fd8-b0cc-df3784e93a7d}</t>
   </si>
   <si>
-    <t>{1ef4cda9-fe9b-4090-8acc-1f5ecf819c40}</t>
-  </si>
-  <si>
     <t>{bc8ecd67-ab55-4e09-8b8d-ced378230585}</t>
   </si>
   <si>
@@ -693,9 +669,6 @@
     <t>{53d1aeb6-77d6-4d75-8ce4-9c2bef019888}</t>
   </si>
   <si>
-    <t>{006f4c27-ef27-49cf-b311-c17ef537d29a}</t>
-  </si>
-  <si>
     <t>{2602474b-fccf-4928-a493-fb0cd541ed96}</t>
   </si>
   <si>
@@ -708,12 +681,6 @@
     <t>{8841b1c7-c1d8-4d30-bca0-23b534fbdf9e}</t>
   </si>
   <si>
-    <t>{97e24236-1600-4202-ad2d-e715fc9d4229}</t>
-  </si>
-  <si>
-    <t>{32b8e65b-c909-4f2c-b192-b5e4281f2e94}</t>
-  </si>
-  <si>
     <t>{282a3327-7bc4-4fc6-8efe-3eecaf7bce95}</t>
   </si>
   <si>
@@ -729,21 +696,12 @@
     <t>{9e5a1808-026c-46df-a6d0-04a443457c79}</t>
   </si>
   <si>
-    <t>{a4caca81-f1bb-424f-8113-53cf3b86236d}</t>
-  </si>
-  <si>
-    <t>{b19c30cb-2913-4111-91dc-43af512db185}</t>
-  </si>
-  <si>
     <t>{fd4a66d7-cbca-4215-b3db-ae218438728b}</t>
   </si>
   <si>
     <t>{b4ef52a9-e09f-4224-b105-a6366701177c}</t>
   </si>
   <si>
-    <t>{8664cc77-02c5-4398-b693-88494de296c1}</t>
-  </si>
-  <si>
     <t>{1ba4babb-6779-4ce5-9366-0a781fefa8e9}</t>
   </si>
   <si>
@@ -753,33 +711,15 @@
     <t>{271c7408-8ac2-4385-b868-701b8fbc651d}</t>
   </si>
   <si>
-    <t>{511acc47-dc9c-450a-b754-d96d8de5de91}</t>
-  </si>
-  <si>
     <t>{e2f8688b-9a50-44c1-b6fd-8e0b0f00b1dd}</t>
   </si>
   <si>
     <t>{1b20566a-5381-446b-b641-671000e77992}</t>
   </si>
   <si>
-    <t>{51a59a4a-c007-4f50-994c-4acf4d23ec96}</t>
-  </si>
-  <si>
-    <t>{bb9105fc-4875-4ebe-a541-03aa3538b430}</t>
-  </si>
-  <si>
     <t>{74c1a907-47d7-40d0-a7ba-5598e5aa46a1}</t>
   </si>
   <si>
-    <t>{9aa007af-d2e1-4bd0-96dd-2ea3d42172e2}</t>
-  </si>
-  <si>
-    <t>{bdbd7596-c0ab-4877-8985-4496eda86162}</t>
-  </si>
-  <si>
-    <t>{fb279a0e-95d1-4966-abba-c88e40e7ec66}</t>
-  </si>
-  <si>
     <t>{ab49be12-0962-474c-9666-f1408908b262}</t>
   </si>
   <si>
@@ -810,30 +750,6 @@
     <t>{fb6d3f9c-cc8e-4904-a85c-a970cafc1a10}</t>
   </si>
   <si>
-    <t>{9aa8acbd-a865-4534-9c07-72851be430c1}</t>
-  </si>
-  <si>
-    <t>{9a23d2af-e9cd-449f-9563-73710485232c}</t>
-  </si>
-  <si>
-    <t>{330631d0-18bd-4ad8-8005-b5287e33fc1a}</t>
-  </si>
-  <si>
-    <t>{a247ed07-f226-4837-96d5-9a2fa27ba027}</t>
-  </si>
-  <si>
-    <t>{79cb4793-ed67-4954-9136-7a64a5d49523}</t>
-  </si>
-  <si>
-    <t>{f4ef4a17-aa22-495b-ae80-8e06ee8e8520}</t>
-  </si>
-  <si>
-    <t>{4fae1df1-65bc-473a-be2c-7706a382c1bd}</t>
-  </si>
-  <si>
-    <t>{fc794b6e-661e-49a0-a855-53cff086ee47}</t>
-  </si>
-  <si>
     <t>{12a19453-d045-4b00-b433-fb9b9b8a5301}</t>
   </si>
   <si>
@@ -849,24 +765,12 @@
     <t>{f6e370c6-fd85-4360-bc93-816113992ac6}</t>
   </si>
   <si>
-    <t>{404ee2c8-50a1-4cc8-9f9f-99a07bab2bdd}</t>
-  </si>
-  <si>
-    <t>{3ac0d5d5-e2df-49c8-a497-416b9a1ddb64}</t>
-  </si>
-  <si>
     <t>{29d5b3bd-461e-421d-a79e-7fed0c36517b}</t>
   </si>
   <si>
     <t>{020b86f8-a7ac-4b23-a508-d3003a154e5a}</t>
   </si>
   <si>
-    <t>{cdcaa29b-e838-4d2d-bb88-c37a41ff5910}</t>
-  </si>
-  <si>
-    <t>{32a67842-c740-4f7e-88dd-d6bf98412a3a}</t>
-  </si>
-  <si>
     <t>{91816e81-66ef-4c91-9cc5-8c06ed4b9cb6}</t>
   </si>
   <si>
@@ -876,27 +780,12 @@
     <t>{479c5048-92ce-4eda-b622-fa4933da7607}</t>
   </si>
   <si>
-    <t>{2d2b8cdd-8d13-4372-96b3-b4a2517e5c56}</t>
-  </si>
-  <si>
-    <t>{a4aeac99-5082-4cec-9add-93b77d091dd9}</t>
-  </si>
-  <si>
     <t>{6a4360ad-d3ba-46d0-94c8-5e8cf464d105}</t>
   </si>
   <si>
     <t>{109c3460-70ce-4256-ac2e-e33b99bcaa2f}</t>
   </si>
   <si>
-    <t>{41778ddc-3378-4374-92e1-023c64c75c83}</t>
-  </si>
-  <si>
-    <t>{b83f5430-eda1-412a-84f1-a340be6a4876}</t>
-  </si>
-  <si>
-    <t>{a0c5cdef-ae92-4561-a2c3-f2b4fb0b7b27}</t>
-  </si>
-  <si>
     <t>{d97e38e6-7d9c-4e59-8df5-5f5d516131c2}</t>
   </si>
   <si>
@@ -906,27 +795,12 @@
     <t>{91629fd3-69eb-4f1d-b3e4-a4c9ef7d6fd0}</t>
   </si>
   <si>
-    <t>{040d00ff-644a-4c29-9839-9fa69593a64f}</t>
-  </si>
-  <si>
     <t>{d76cc420-3bec-44c0-993f-4fb5a41c25f2}</t>
   </si>
   <si>
-    <t>{63c57680-40d4-4c56-814f-47c0a8636675}</t>
-  </si>
-  <si>
-    <t>{c73c6618-e69d-4edd-af93-acd9c25131b9}</t>
-  </si>
-  <si>
-    <t>{51ea4a26-53ca-48f6-a529-bddcdc741f85}</t>
-  </si>
-  <si>
     <t>{c61b7721-a7ac-446e-9556-d2bfc6ee3a45}</t>
   </si>
   <si>
-    <t>{3862dd06-e640-4b26-bea2-801e3ec6ab9a}</t>
-  </si>
-  <si>
     <t>{945f2d33-f10a-4ee2-ab0b-d49aefc1346c}</t>
   </si>
   <si>
@@ -942,42 +816,27 @@
     <t>{b909b37f-b811-49a6-99e9-d2d9c161ff18}</t>
   </si>
   <si>
-    <t>{9e9b4bc2-2b05-4fd2-aae4-06b8baaeb1d5}</t>
-  </si>
-  <si>
     <t>{dd11535c-0334-4126-b3ca-382cd5ca5831}</t>
   </si>
   <si>
     <t>{417399a0-3cbf-42d0-a3a8-63c85189511b}</t>
   </si>
   <si>
-    <t>{efed911a-bdd7-48a3-9a80-9526169fe2fd}</t>
-  </si>
-  <si>
     <t>{2178617a-8134-4837-ace7-a0b50bd6a4c8}</t>
   </si>
   <si>
-    <t>{c8177599-17c3-4234-9dc5-684c2e3b61d6}</t>
-  </si>
-  <si>
     <t>{438002a1-0744-47b0-89ad-a3f4141e8d0e}</t>
   </si>
   <si>
     <t>{005068dc-1a3e-49e3-8a62-d01e6da9f8aa}</t>
   </si>
   <si>
-    <t>{4aeeb44f-d4f5-4e6d-acfb-22b060c7a328}</t>
-  </si>
-  <si>
     <t>{9eedfda7-15c7-4820-b8cc-25cdab1fb118}</t>
   </si>
   <si>
     <t>{8f6489a7-7572-4251-8fca-093b45f4e706}</t>
   </si>
   <si>
-    <t>{fc26a7ff-743b-4286-ac35-b495a3dcb1da}</t>
-  </si>
-  <si>
     <t>{3dc627c2-04b2-43ce-8857-35dabdcd13f5}</t>
   </si>
   <si>
@@ -996,15 +855,6 @@
     <t>{659daf12-884f-417e-a3c8-693049879abb}</t>
   </si>
   <si>
-    <t>{50873329-545e-4f57-bf7b-f504eee0d4a5}</t>
-  </si>
-  <si>
-    <t>{4808fb67-35de-461a-ba26-3f4329e666e1}</t>
-  </si>
-  <si>
-    <t>{6c21b60e-9d6f-4e68-9637-4691a93cca9a}</t>
-  </si>
-  <si>
     <t>{73f5a00a-684a-4839-8bfa-c81b86552fbc}</t>
   </si>
   <si>
@@ -1018,15 +868,6 @@
   </si>
   <si>
     <t>{d417a643-87f2-4fa9-a9da-a4c504ca395f}</t>
-  </si>
-  <si>
-    <t>{8fc8781a-a694-46c2-9772-fc64920e6286}</t>
-  </si>
-  <si>
-    <t>{5c613380-719d-46e4-9a18-c13d257a005f}</t>
-  </si>
-  <si>
-    <t>{31d85e51-4494-4012-ba36-fe0f64ad0fa6}</t>
   </si>
   <si>
     <t>{628e4ca1-2f87-43a9-bb68-9b6c4ed350f3}</t>
@@ -1474,13 +1315,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185A8EA-8C28-4E3D-A546-D0F8DB7A2AC0}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V285"/>
+  <dimension ref="A1:V246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2:T232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,10 +1346,10 @@
         <v>172</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1523,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1620,7 +1461,7 @@
       </c>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1683,7 +1524,7 @@
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1745,7 +1586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1869,7 +1710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1931,7 +1772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -2055,7 +1896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -2117,7 +1958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -2179,7 +2020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -2241,7 +2082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2303,7 +2144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -2365,7 +2206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -2489,7 +2330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -2675,7 +2516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -2737,7 +2578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -3047,7 +2888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -3171,7 +3012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -3543,7 +3384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -3667,7 +3508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -3729,7 +3570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -4101,7 +3942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -4411,7 +4252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2022</v>
       </c>
@@ -4597,7 +4438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2022</v>
       </c>
@@ -4659,7 +4500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -4721,7 +4562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2022</v>
       </c>
@@ -4783,7 +4624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2022</v>
       </c>
@@ -4845,7 +4686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2022</v>
       </c>
@@ -4907,7 +4748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2022</v>
       </c>
@@ -5031,7 +4872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2022</v>
       </c>
@@ -5093,7 +4934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2022</v>
       </c>
@@ -5155,7 +4996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2022</v>
       </c>
@@ -5465,7 +5306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -5525,7 +5366,7 @@
       </c>
       <c r="T65" s="5"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -5585,7 +5426,7 @@
       </c>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -5645,7 +5486,7 @@
       </c>
       <c r="T67" s="5"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -5705,7 +5546,7 @@
       </c>
       <c r="T68" s="5"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2022</v>
       </c>
@@ -5765,7 +5606,7 @@
       </c>
       <c r="T69" s="5"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -5825,7 +5666,7 @@
       </c>
       <c r="T70" s="5"/>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -6011,7 +5852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -6073,7 +5914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -6133,7 +5974,7 @@
       </c>
       <c r="T75" s="6"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2022</v>
       </c>
@@ -6195,7 +6036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -6257,7 +6098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2022</v>
       </c>
@@ -6319,7 +6160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2022</v>
       </c>
@@ -6379,7 +6220,7 @@
       </c>
       <c r="T79" s="6"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2022</v>
       </c>
@@ -6441,7 +6282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2022</v>
       </c>
@@ -6627,7 +6468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2022</v>
       </c>
@@ -6689,7 +6530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -6937,7 +6778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2022</v>
       </c>
@@ -7061,7 +6902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -7123,7 +6964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2022</v>
       </c>
@@ -7247,7 +7088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2022</v>
       </c>
@@ -7433,7 +7274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -7495,7 +7336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2022</v>
       </c>
@@ -8177,7 +8018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2022</v>
       </c>
@@ -8363,7 +8204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2022</v>
       </c>
@@ -8425,7 +8266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2022</v>
       </c>
@@ -8487,7 +8328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2022</v>
       </c>
@@ -8735,7 +8576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2022</v>
       </c>
@@ -8859,7 +8700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -8921,7 +8762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2022</v>
       </c>
@@ -8983,7 +8824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2022</v>
       </c>
@@ -9045,7 +8886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -9231,7 +9072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2022</v>
       </c>
@@ -9727,7 +9568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -10037,7 +9878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2023</v>
       </c>
@@ -10409,7 +10250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2023</v>
       </c>
@@ -10476,7 +10317,7 @@
         <v>2023</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" s="17" t="s">
         <v>173</v>
@@ -10491,10 +10332,10 @@
         <v>181</v>
       </c>
       <c r="G146">
-        <v>19.367831869573799</v>
+        <v>7.50962023792842</v>
       </c>
       <c r="H146" s="4">
-        <v>45092.517731481479</v>
+        <v>45092.518969907411</v>
       </c>
       <c r="I146" t="s">
         <v>77</v>
@@ -10503,7 +10344,7 @@
         <v>3</v>
       </c>
       <c r="K146" s="4">
-        <v>45092.517731481479</v>
+        <v>45092.518969907411</v>
       </c>
       <c r="L146" t="s">
         <v>77</v>
@@ -10517,11 +10358,11 @@
       <c r="O146" t="s">
         <v>19</v>
       </c>
-      <c r="P146" s="2" t="s">
-        <v>32</v>
+      <c r="P146" t="s">
+        <v>20</v>
       </c>
       <c r="Q146" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R146" t="s">
         <v>21</v>
@@ -10533,12 +10374,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2023</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147" s="17" t="s">
         <v>173</v>
@@ -10553,10 +10394,10 @@
         <v>182</v>
       </c>
       <c r="G147">
-        <v>7.50962023792842</v>
+        <v>12.940943281285101</v>
       </c>
       <c r="H147" s="4">
-        <v>45092.518969907411</v>
+        <v>45092.519409722219</v>
       </c>
       <c r="I147" t="s">
         <v>77</v>
@@ -10565,7 +10406,7 @@
         <v>3</v>
       </c>
       <c r="K147" s="4">
-        <v>45092.518969907411</v>
+        <v>45092.519409722219</v>
       </c>
       <c r="L147" t="s">
         <v>77</v>
@@ -10579,8 +10420,8 @@
       <c r="O147" t="s">
         <v>19</v>
       </c>
-      <c r="P147" t="s">
-        <v>20</v>
+      <c r="P147" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q147" t="s">
         <v>19</v>
@@ -10592,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="T147" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -10600,7 +10441,7 @@
         <v>2023</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C148" s="17" t="s">
         <v>173</v>
@@ -10615,10 +10456,10 @@
         <v>183</v>
       </c>
       <c r="G148">
-        <v>12.940943281285101</v>
+        <v>1.2413415362801801</v>
       </c>
       <c r="H148" s="4">
-        <v>45092.519409722219</v>
+        <v>45092.519849537035</v>
       </c>
       <c r="I148" t="s">
         <v>77</v>
@@ -10627,7 +10468,7 @@
         <v>3</v>
       </c>
       <c r="K148" s="4">
-        <v>45092.519409722219</v>
+        <v>45092.519849537035</v>
       </c>
       <c r="L148" t="s">
         <v>77</v>
@@ -10641,8 +10482,8 @@
       <c r="O148" t="s">
         <v>19</v>
       </c>
-      <c r="P148" s="2" t="s">
-        <v>32</v>
+      <c r="P148" t="s">
+        <v>20</v>
       </c>
       <c r="Q148" t="s">
         <v>19</v>
@@ -10654,7 +10495,7 @@
         <v>1</v>
       </c>
       <c r="T148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -10662,7 +10503,7 @@
         <v>2023</v>
       </c>
       <c r="B149">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C149" s="17" t="s">
         <v>173</v>
@@ -10677,10 +10518,10 @@
         <v>184</v>
       </c>
       <c r="G149">
-        <v>1.2413415362801801</v>
+        <v>2.2024815608980299</v>
       </c>
       <c r="H149" s="4">
-        <v>45092.519849537035</v>
+        <v>45092.580833333333</v>
       </c>
       <c r="I149" t="s">
         <v>77</v>
@@ -10689,7 +10530,7 @@
         <v>3</v>
       </c>
       <c r="K149" s="4">
-        <v>45092.519849537035</v>
+        <v>45092.580833333333</v>
       </c>
       <c r="L149" t="s">
         <v>77</v>
@@ -10698,22 +10539,22 @@
         <v>18</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O149" t="s">
         <v>19</v>
       </c>
-      <c r="P149" t="s">
-        <v>20</v>
+      <c r="P149" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q149" t="s">
         <v>19</v>
       </c>
-      <c r="R149" t="s">
-        <v>21</v>
+      <c r="R149" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T149" t="s">
         <v>19</v>
@@ -10724,7 +10565,7 @@
         <v>2023</v>
       </c>
       <c r="B150">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C150" s="17" t="s">
         <v>173</v>
@@ -10739,10 +10580,10 @@
         <v>185</v>
       </c>
       <c r="G150">
-        <v>71.235664313735299</v>
+        <v>47.055617908288198</v>
       </c>
       <c r="H150" s="4">
-        <v>45092.522129629629</v>
+        <v>45093.318703703706</v>
       </c>
       <c r="I150" t="s">
         <v>77</v>
@@ -10751,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="K150" s="4">
-        <v>45092.522129629629</v>
+        <v>45093.318703703706</v>
       </c>
       <c r="L150" t="s">
         <v>77</v>
@@ -10763,10 +10604,10 @@
         <v>3</v>
       </c>
       <c r="O150" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q150" t="s">
         <v>22</v>
@@ -10775,18 +10616,18 @@
         <v>24</v>
       </c>
       <c r="S150">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T150" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2023</v>
       </c>
       <c r="B151">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>173</v>
@@ -10801,10 +10642,10 @@
         <v>186</v>
       </c>
       <c r="G151">
-        <v>142.41124596871401</v>
+        <v>1.1666905859703101</v>
       </c>
       <c r="H151" s="4">
-        <v>45092.52615740741</v>
+        <v>45093.32199074074</v>
       </c>
       <c r="I151" t="s">
         <v>77</v>
@@ -10813,7 +10654,7 @@
         <v>3</v>
       </c>
       <c r="K151" s="4">
-        <v>45092.52615740741</v>
+        <v>45093.32199074074</v>
       </c>
       <c r="L151" t="s">
         <v>77</v>
@@ -10822,7 +10663,7 @@
         <v>18</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O151" t="s">
         <v>19</v>
@@ -10831,16 +10672,16 @@
         <v>32</v>
       </c>
       <c r="Q151" t="s">
-        <v>22</v>
-      </c>
-      <c r="R151" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R151" t="s">
+        <v>21</v>
       </c>
       <c r="S151">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T151" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -10848,7 +10689,7 @@
         <v>2023</v>
       </c>
       <c r="B152">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C152" s="17" t="s">
         <v>173</v>
@@ -10863,10 +10704,10 @@
         <v>187</v>
       </c>
       <c r="G152">
-        <v>2.2024815608980299</v>
+        <v>10.5376024929985</v>
       </c>
       <c r="H152" s="4">
-        <v>45092.580833333333</v>
+        <v>45093.322870370372</v>
       </c>
       <c r="I152" t="s">
         <v>77</v>
@@ -10875,7 +10716,7 @@
         <v>3</v>
       </c>
       <c r="K152" s="4">
-        <v>45092.580833333333</v>
+        <v>45093.322870370372</v>
       </c>
       <c r="L152" t="s">
         <v>77</v>
@@ -10884,7 +10725,7 @@
         <v>18</v>
       </c>
       <c r="N152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O152" t="s">
         <v>19</v>
@@ -10895,11 +10736,11 @@
       <c r="Q152" t="s">
         <v>19</v>
       </c>
-      <c r="R152" s="2" t="s">
-        <v>24</v>
+      <c r="R152" t="s">
+        <v>21</v>
       </c>
       <c r="S152">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T152" t="s">
         <v>19</v>
@@ -10910,7 +10751,7 @@
         <v>2023</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C153" s="17" t="s">
         <v>173</v>
@@ -10925,10 +10766,10 @@
         <v>188</v>
       </c>
       <c r="G153">
-        <v>47.055617908288198</v>
+        <v>84.277357492001897</v>
       </c>
       <c r="H153" s="4">
-        <v>45093.318703703706</v>
+        <v>45093.324293981481</v>
       </c>
       <c r="I153" t="s">
         <v>77</v>
@@ -10937,7 +10778,7 @@
         <v>3</v>
       </c>
       <c r="K153" s="4">
-        <v>45093.318703703706</v>
+        <v>45093.324293981481</v>
       </c>
       <c r="L153" t="s">
         <v>77</v>
@@ -10949,7 +10790,7 @@
         <v>3</v>
       </c>
       <c r="O153" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>32</v>
@@ -10972,7 +10813,7 @@
         <v>2023</v>
       </c>
       <c r="B154">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C154" s="17" t="s">
         <v>173</v>
@@ -10987,10 +10828,10 @@
         <v>189</v>
       </c>
       <c r="G154">
-        <v>1.1666905859703101</v>
+        <v>12.964087206945001</v>
       </c>
       <c r="H154" s="4">
-        <v>45093.32199074074</v>
+        <v>45093.325243055559</v>
       </c>
       <c r="I154" t="s">
         <v>77</v>
@@ -10999,7 +10840,7 @@
         <v>3</v>
       </c>
       <c r="K154" s="4">
-        <v>45093.32199074074</v>
+        <v>45093.325243055559</v>
       </c>
       <c r="L154" t="s">
         <v>77</v>
@@ -11008,10 +10849,10 @@
         <v>18</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O154" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>32</v>
@@ -11019,14 +10860,14 @@
       <c r="Q154" t="s">
         <v>19</v>
       </c>
-      <c r="R154" t="s">
-        <v>21</v>
+      <c r="R154" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S154">
         <v>8</v>
       </c>
       <c r="T154" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -11034,7 +10875,7 @@
         <v>2023</v>
       </c>
       <c r="B155">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>173</v>
@@ -11049,10 +10890,10 @@
         <v>190</v>
       </c>
       <c r="G155">
-        <v>10.5376024929985</v>
+        <v>156.34524065546901</v>
       </c>
       <c r="H155" s="4">
-        <v>45093.322870370372</v>
+        <v>45093.330196759256</v>
       </c>
       <c r="I155" t="s">
         <v>77</v>
@@ -11061,7 +10902,7 @@
         <v>3</v>
       </c>
       <c r="K155" s="4">
-        <v>45093.322870370372</v>
+        <v>45093.330196759256</v>
       </c>
       <c r="L155" t="s">
         <v>77</v>
@@ -11070,19 +10911,19 @@
         <v>18</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O155" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q155" t="s">
-        <v>19</v>
-      </c>
-      <c r="R155" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S155">
         <v>8</v>
@@ -11096,7 +10937,7 @@
         <v>2023</v>
       </c>
       <c r="B156">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C156" s="17" t="s">
         <v>173</v>
@@ -11111,10 +10952,10 @@
         <v>191</v>
       </c>
       <c r="G156">
-        <v>84.277357492001897</v>
+        <v>1.55546248999843</v>
       </c>
       <c r="H156" s="4">
-        <v>45093.324293981481</v>
+        <v>45093.373738425929</v>
       </c>
       <c r="I156" t="s">
         <v>77</v>
@@ -11123,7 +10964,7 @@
         <v>3</v>
       </c>
       <c r="K156" s="4">
-        <v>45093.324293981481</v>
+        <v>45093.373738425929</v>
       </c>
       <c r="L156" t="s">
         <v>77</v>
@@ -11132,22 +10973,22 @@
         <v>18</v>
       </c>
       <c r="N156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>22</v>
-      </c>
-      <c r="P156" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="P156" t="s">
+        <v>20</v>
       </c>
       <c r="Q156" t="s">
-        <v>22</v>
-      </c>
-      <c r="R156" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R156" t="s">
+        <v>21</v>
       </c>
       <c r="S156">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T156" t="s">
         <v>19</v>
@@ -11158,7 +10999,7 @@
         <v>2023</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C157" s="17" t="s">
         <v>173</v>
@@ -11173,10 +11014,10 @@
         <v>192</v>
       </c>
       <c r="G157">
-        <v>12.964087206945001</v>
+        <v>10.5267245216146</v>
       </c>
       <c r="H157" s="4">
-        <v>45093.325243055559</v>
+        <v>45093.405729166669</v>
       </c>
       <c r="I157" t="s">
         <v>77</v>
@@ -11185,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="K157" s="4">
-        <v>45093.325243055559</v>
+        <v>45093.405729166669</v>
       </c>
       <c r="L157" t="s">
         <v>77</v>
@@ -11197,7 +11038,7 @@
         <v>2</v>
       </c>
       <c r="O157" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>32</v>
@@ -11205,11 +11046,11 @@
       <c r="Q157" t="s">
         <v>19</v>
       </c>
-      <c r="R157" s="2" t="s">
-        <v>24</v>
+      <c r="R157" t="s">
+        <v>21</v>
       </c>
       <c r="S157">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T157" t="s">
         <v>19</v>
@@ -11220,7 +11061,7 @@
         <v>2023</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C158" s="17" t="s">
         <v>173</v>
@@ -11235,10 +11076,10 @@
         <v>193</v>
       </c>
       <c r="G158">
-        <v>156.34524065546901</v>
+        <v>3.3771974915548002</v>
       </c>
       <c r="H158" s="4">
-        <v>45093.330196759256</v>
+        <v>45093.415000000001</v>
       </c>
       <c r="I158" t="s">
         <v>77</v>
@@ -11247,7 +11088,7 @@
         <v>3</v>
       </c>
       <c r="K158" s="4">
-        <v>45093.330196759256</v>
+        <v>45093.415000000001</v>
       </c>
       <c r="L158" t="s">
         <v>77</v>
@@ -11256,22 +11097,22 @@
         <v>18</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>22</v>
-      </c>
-      <c r="P158" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="P158" t="s">
+        <v>20</v>
       </c>
       <c r="Q158" t="s">
-        <v>22</v>
-      </c>
-      <c r="R158" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R158" t="s">
+        <v>21</v>
       </c>
       <c r="S158">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T158" t="s">
         <v>19</v>
@@ -11282,7 +11123,7 @@
         <v>2023</v>
       </c>
       <c r="B159">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C159" s="17" t="s">
         <v>173</v>
@@ -11297,10 +11138,10 @@
         <v>194</v>
       </c>
       <c r="G159">
-        <v>1.55546248999843</v>
+        <v>40.541610195303598</v>
       </c>
       <c r="H159" s="4">
-        <v>45093.373738425929</v>
+        <v>45093.416365740741</v>
       </c>
       <c r="I159" t="s">
         <v>77</v>
@@ -11309,7 +11150,7 @@
         <v>3</v>
       </c>
       <c r="K159" s="4">
-        <v>45093.373738425929</v>
+        <v>45093.416365740741</v>
       </c>
       <c r="L159" t="s">
         <v>77</v>
@@ -11318,22 +11159,22 @@
         <v>18</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O159" t="s">
         <v>19</v>
       </c>
-      <c r="P159" t="s">
-        <v>20</v>
+      <c r="P159" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q159" t="s">
-        <v>19</v>
-      </c>
-      <c r="R159" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S159">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T159" t="s">
         <v>19</v>
@@ -11344,7 +11185,7 @@
         <v>2023</v>
       </c>
       <c r="B160">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C160" s="17" t="s">
         <v>173</v>
@@ -11359,10 +11200,10 @@
         <v>195</v>
       </c>
       <c r="G160">
-        <v>10.5267245216146</v>
+        <v>2.3933385291704501</v>
       </c>
       <c r="H160" s="4">
-        <v>45093.405729166669</v>
+        <v>45093.462314814817</v>
       </c>
       <c r="I160" t="s">
         <v>77</v>
@@ -11371,7 +11212,7 @@
         <v>3</v>
       </c>
       <c r="K160" s="4">
-        <v>45093.405729166669</v>
+        <v>45093.462314814817</v>
       </c>
       <c r="L160" t="s">
         <v>77</v>
@@ -11380,13 +11221,13 @@
         <v>18</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O160" t="s">
         <v>19</v>
       </c>
-      <c r="P160" s="2" t="s">
-        <v>32</v>
+      <c r="P160" t="s">
+        <v>20</v>
       </c>
       <c r="Q160" t="s">
         <v>19</v>
@@ -11395,7 +11236,7 @@
         <v>21</v>
       </c>
       <c r="S160">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T160" t="s">
         <v>19</v>
@@ -11406,7 +11247,7 @@
         <v>2023</v>
       </c>
       <c r="B161">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C161" s="17" t="s">
         <v>173</v>
@@ -11421,10 +11262,10 @@
         <v>196</v>
       </c>
       <c r="G161">
-        <v>98.838683929966905</v>
+        <v>31.852050746519001</v>
       </c>
       <c r="H161" s="4">
-        <v>45093.40697916667</v>
+        <v>45093.462951388887</v>
       </c>
       <c r="I161" t="s">
         <v>77</v>
@@ -11433,7 +11274,7 @@
         <v>3</v>
       </c>
       <c r="K161" s="4">
-        <v>45093.40697916667</v>
+        <v>45093.462951388887</v>
       </c>
       <c r="L161" t="s">
         <v>77</v>
@@ -11445,19 +11286,19 @@
         <v>2</v>
       </c>
       <c r="O161" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P161" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q161" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R161" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S161">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T161" t="s">
         <v>19</v>
@@ -11468,7 +11309,7 @@
         <v>2023</v>
       </c>
       <c r="B162">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C162" s="17" t="s">
         <v>173</v>
@@ -11483,10 +11324,10 @@
         <v>197</v>
       </c>
       <c r="G162">
-        <v>16.4327037263057</v>
+        <v>5.2764177286307303</v>
       </c>
       <c r="H162" s="4">
-        <v>45093.407546296294</v>
+        <v>45093.46770833333</v>
       </c>
       <c r="I162" t="s">
         <v>77</v>
@@ -11495,7 +11336,7 @@
         <v>3</v>
       </c>
       <c r="K162" s="4">
-        <v>45093.407546296294</v>
+        <v>45093.46770833333</v>
       </c>
       <c r="L162" t="s">
         <v>77</v>
@@ -11507,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="O162" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P162" s="2" t="s">
         <v>32</v>
@@ -11515,22 +11356,22 @@
       <c r="Q162" t="s">
         <v>19</v>
       </c>
-      <c r="R162" t="s">
-        <v>21</v>
+      <c r="R162" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S162">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T162" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2023</v>
       </c>
       <c r="B163">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C163" s="17" t="s">
         <v>173</v>
@@ -11545,10 +11386,10 @@
         <v>198</v>
       </c>
       <c r="G163">
-        <v>29.195643094654901</v>
+        <v>1.4486725679493799</v>
       </c>
       <c r="H163" s="4">
-        <v>45093.412129629629</v>
+        <v>45093.483483796299</v>
       </c>
       <c r="I163" t="s">
         <v>77</v>
@@ -11557,7 +11398,7 @@
         <v>3</v>
       </c>
       <c r="K163" s="4">
-        <v>45093.412129629629</v>
+        <v>45093.483483796299</v>
       </c>
       <c r="L163" t="s">
         <v>77</v>
@@ -11566,25 +11407,25 @@
         <v>18</v>
       </c>
       <c r="N163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O163" t="s">
         <v>19</v>
       </c>
-      <c r="P163" s="2" t="s">
-        <v>32</v>
+      <c r="P163" t="s">
+        <v>20</v>
       </c>
       <c r="Q163" t="s">
         <v>19</v>
       </c>
-      <c r="R163" s="2" t="s">
-        <v>24</v>
+      <c r="R163" t="s">
+        <v>30</v>
       </c>
       <c r="S163">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T163" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -11592,7 +11433,7 @@
         <v>2023</v>
       </c>
       <c r="B164">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C164" s="17" t="s">
         <v>173</v>
@@ -11607,10 +11448,10 @@
         <v>199</v>
       </c>
       <c r="G164">
-        <v>52.7212548186898</v>
+        <v>43.183748971434902</v>
       </c>
       <c r="H164" s="4">
-        <v>45093.412962962961</v>
+        <v>45093.4841087963</v>
       </c>
       <c r="I164" t="s">
         <v>77</v>
@@ -11619,7 +11460,7 @@
         <v>3</v>
       </c>
       <c r="K164" s="4">
-        <v>45093.412962962961</v>
+        <v>45093.4841087963</v>
       </c>
       <c r="L164" t="s">
         <v>77</v>
@@ -11628,7 +11469,7 @@
         <v>18</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O164" t="s">
         <v>19</v>
@@ -11643,7 +11484,7 @@
         <v>24</v>
       </c>
       <c r="S164">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T164" t="s">
         <v>19</v>
@@ -11654,7 +11495,7 @@
         <v>2023</v>
       </c>
       <c r="B165">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C165" s="17" t="s">
         <v>173</v>
@@ -11669,10 +11510,10 @@
         <v>200</v>
       </c>
       <c r="G165">
-        <v>3.3771974915548002</v>
+        <v>1.60123210683608</v>
       </c>
       <c r="H165" s="4">
-        <v>45093.415000000001</v>
+        <v>45093.484548611108</v>
       </c>
       <c r="I165" t="s">
         <v>77</v>
@@ -11681,7 +11522,7 @@
         <v>3</v>
       </c>
       <c r="K165" s="4">
-        <v>45093.415000000001</v>
+        <v>45093.484548611108</v>
       </c>
       <c r="L165" t="s">
         <v>77</v>
@@ -11705,18 +11546,18 @@
         <v>21</v>
       </c>
       <c r="S165">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T165" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2023</v>
       </c>
       <c r="B166">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C166" s="17" t="s">
         <v>173</v>
@@ -11731,10 +11572,10 @@
         <v>201</v>
       </c>
       <c r="G166">
-        <v>40.541610195303598</v>
+        <v>2.3902390847564798</v>
       </c>
       <c r="H166" s="4">
-        <v>45093.416365740741</v>
+        <v>45093.485208333332</v>
       </c>
       <c r="I166" t="s">
         <v>77</v>
@@ -11743,7 +11584,7 @@
         <v>3</v>
       </c>
       <c r="K166" s="4">
-        <v>45093.416365740741</v>
+        <v>45093.485208333332</v>
       </c>
       <c r="L166" t="s">
         <v>77</v>
@@ -11752,25 +11593,25 @@
         <v>18</v>
       </c>
       <c r="N166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O166" t="s">
         <v>19</v>
       </c>
-      <c r="P166" s="2" t="s">
-        <v>26</v>
+      <c r="P166" t="s">
+        <v>20</v>
       </c>
       <c r="Q166" t="s">
-        <v>22</v>
-      </c>
-      <c r="R166" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R166" t="s">
+        <v>21</v>
       </c>
       <c r="S166">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T166" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -11778,7 +11619,7 @@
         <v>2023</v>
       </c>
       <c r="B167">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C167" s="17" t="s">
         <v>173</v>
@@ -11793,10 +11634,10 @@
         <v>202</v>
       </c>
       <c r="G167">
-        <v>17.7238703208799</v>
+        <v>4.7324865299487202</v>
       </c>
       <c r="H167" s="4">
-        <v>45093.4609375</v>
+        <v>45093.488692129627</v>
       </c>
       <c r="I167" t="s">
         <v>77</v>
@@ -11805,7 +11646,7 @@
         <v>3</v>
       </c>
       <c r="K167" s="4">
-        <v>45093.4609375</v>
+        <v>45093.488692129627</v>
       </c>
       <c r="L167" t="s">
         <v>77</v>
@@ -11817,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="O167" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P167" s="2" t="s">
         <v>32</v>
@@ -11825,11 +11666,11 @@
       <c r="Q167" t="s">
         <v>19</v>
       </c>
-      <c r="R167" s="2" t="s">
-        <v>24</v>
+      <c r="R167" t="s">
+        <v>21</v>
       </c>
       <c r="S167">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T167" t="s">
         <v>19</v>
@@ -11840,7 +11681,7 @@
         <v>2023</v>
       </c>
       <c r="B168">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C168" s="17" t="s">
         <v>173</v>
@@ -11855,10 +11696,10 @@
         <v>203</v>
       </c>
       <c r="G168">
-        <v>2.3933385291704501</v>
+        <v>51.645954439438697</v>
       </c>
       <c r="H168" s="4">
-        <v>45093.462314814817</v>
+        <v>45093.489710648151</v>
       </c>
       <c r="I168" t="s">
         <v>77</v>
@@ -11867,7 +11708,7 @@
         <v>3</v>
       </c>
       <c r="K168" s="4">
-        <v>45093.462314814817</v>
+        <v>45093.489710648151</v>
       </c>
       <c r="L168" t="s">
         <v>77</v>
@@ -11881,28 +11722,28 @@
       <c r="O168" t="s">
         <v>19</v>
       </c>
-      <c r="P168" t="s">
-        <v>20</v>
+      <c r="P168" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q168" t="s">
-        <v>19</v>
-      </c>
-      <c r="R168" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R168" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S168">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T168" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2023</v>
       </c>
       <c r="B169">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C169" s="17" t="s">
         <v>173</v>
@@ -11917,10 +11758,10 @@
         <v>204</v>
       </c>
       <c r="G169">
-        <v>31.852050746519001</v>
+        <v>0.79213272275101498</v>
       </c>
       <c r="H169" s="4">
-        <v>45093.462951388887</v>
+        <v>45093.490277777775</v>
       </c>
       <c r="I169" t="s">
         <v>77</v>
@@ -11929,7 +11770,7 @@
         <v>3</v>
       </c>
       <c r="K169" s="4">
-        <v>45093.462951388887</v>
+        <v>45093.490277777775</v>
       </c>
       <c r="L169" t="s">
         <v>77</v>
@@ -11938,10 +11779,10 @@
         <v>18</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O169" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P169" s="2" t="s">
         <v>32</v>
@@ -11949,22 +11790,22 @@
       <c r="Q169" t="s">
         <v>19</v>
       </c>
-      <c r="R169" s="2" t="s">
-        <v>24</v>
+      <c r="R169" t="s">
+        <v>21</v>
       </c>
       <c r="S169">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2023</v>
       </c>
       <c r="B170">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C170" s="17" t="s">
         <v>173</v>
@@ -11979,10 +11820,10 @@
         <v>205</v>
       </c>
       <c r="G170">
-        <v>5.2764177286307303</v>
+        <v>44.056598965990403</v>
       </c>
       <c r="H170" s="4">
-        <v>45093.46770833333</v>
+        <v>45093.490879629629</v>
       </c>
       <c r="I170" t="s">
         <v>77</v>
@@ -11991,7 +11832,7 @@
         <v>3</v>
       </c>
       <c r="K170" s="4">
-        <v>45093.46770833333</v>
+        <v>45093.490879629629</v>
       </c>
       <c r="L170" t="s">
         <v>77</v>
@@ -12003,22 +11844,22 @@
         <v>1</v>
       </c>
       <c r="O170" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P170" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q170" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R170" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S170">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T170" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12026,7 +11867,7 @@
         <v>2023</v>
       </c>
       <c r="B171">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C171" s="17" t="s">
         <v>173</v>
@@ -12041,10 +11882,10 @@
         <v>206</v>
       </c>
       <c r="G171">
-        <v>1.5794193134363499</v>
+        <v>127.156988485799</v>
       </c>
       <c r="H171" s="4">
-        <v>45093.469386574077</v>
+        <v>45093.491967592592</v>
       </c>
       <c r="I171" t="s">
         <v>77</v>
@@ -12053,7 +11894,7 @@
         <v>3</v>
       </c>
       <c r="K171" s="4">
-        <v>45093.469386574077</v>
+        <v>45093.491967592592</v>
       </c>
       <c r="L171" t="s">
         <v>77</v>
@@ -12062,25 +11903,25 @@
         <v>18</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O171" t="s">
-        <v>19</v>
-      </c>
-      <c r="P171" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q171" t="s">
-        <v>19</v>
-      </c>
-      <c r="R171" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R171" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S171">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T171" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12088,7 +11929,7 @@
         <v>2023</v>
       </c>
       <c r="B172">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C172" s="17" t="s">
         <v>173</v>
@@ -12103,10 +11944,10 @@
         <v>207</v>
       </c>
       <c r="G172">
-        <v>1.4486725679493799</v>
+        <v>53.151782850366402</v>
       </c>
       <c r="H172" s="4">
-        <v>45093.483483796299</v>
+        <v>45093.494953703703</v>
       </c>
       <c r="I172" t="s">
         <v>77</v>
@@ -12115,7 +11956,7 @@
         <v>3</v>
       </c>
       <c r="K172" s="4">
-        <v>45093.483483796299</v>
+        <v>45093.494953703703</v>
       </c>
       <c r="L172" t="s">
         <v>77</v>
@@ -12127,22 +11968,22 @@
         <v>1</v>
       </c>
       <c r="O172" t="s">
-        <v>19</v>
-      </c>
-      <c r="P172" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q172" t="s">
-        <v>19</v>
-      </c>
-      <c r="R172" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="R172" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S172">
         <v>17</v>
       </c>
       <c r="T172" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12150,7 +11991,7 @@
         <v>2023</v>
       </c>
       <c r="B173">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C173" s="17" t="s">
         <v>173</v>
@@ -12165,10 +12006,10 @@
         <v>208</v>
       </c>
       <c r="G173">
-        <v>43.183748971434902</v>
+        <v>182.13562863205601</v>
       </c>
       <c r="H173" s="4">
-        <v>45093.4841087963</v>
+        <v>45093.496678240743</v>
       </c>
       <c r="I173" t="s">
         <v>77</v>
@@ -12177,7 +12018,7 @@
         <v>3</v>
       </c>
       <c r="K173" s="4">
-        <v>45093.4841087963</v>
+        <v>45093.496678240743</v>
       </c>
       <c r="L173" t="s">
         <v>77</v>
@@ -12195,7 +12036,7 @@
         <v>32</v>
       </c>
       <c r="Q173" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R173" s="2" t="s">
         <v>24</v>
@@ -12212,7 +12053,7 @@
         <v>2023</v>
       </c>
       <c r="B174">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C174" s="17" t="s">
         <v>173</v>
@@ -12227,10 +12068,10 @@
         <v>209</v>
       </c>
       <c r="G174">
-        <v>1.60123210683608</v>
+        <v>104.055036981996</v>
       </c>
       <c r="H174" s="4">
-        <v>45093.484548611108</v>
+        <v>45093.551134259258</v>
       </c>
       <c r="I174" t="s">
         <v>77</v>
@@ -12239,7 +12080,7 @@
         <v>3</v>
       </c>
       <c r="K174" s="4">
-        <v>45093.484548611108</v>
+        <v>45093.551134259258</v>
       </c>
       <c r="L174" t="s">
         <v>77</v>
@@ -12248,22 +12089,22 @@
         <v>18</v>
       </c>
       <c r="N174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O174" t="s">
-        <v>19</v>
-      </c>
-      <c r="P174" t="s">
+        <v>22</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>22</v>
+      </c>
+      <c r="R174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S174">
         <v>20</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>19</v>
-      </c>
-      <c r="R174" t="s">
-        <v>21</v>
-      </c>
-      <c r="S174">
-        <v>17</v>
       </c>
       <c r="T174" t="s">
         <v>19</v>
@@ -12274,7 +12115,7 @@
         <v>2023</v>
       </c>
       <c r="B175">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C175" s="17" t="s">
         <v>173</v>
@@ -12289,10 +12130,10 @@
         <v>210</v>
       </c>
       <c r="G175">
-        <v>2.3902390847564798</v>
+        <v>106.915375037224</v>
       </c>
       <c r="H175" s="4">
-        <v>45093.485208333332</v>
+        <v>45093.552037037036</v>
       </c>
       <c r="I175" t="s">
         <v>77</v>
@@ -12301,7 +12142,7 @@
         <v>3</v>
       </c>
       <c r="K175" s="4">
-        <v>45093.485208333332</v>
+        <v>45093.552037037036</v>
       </c>
       <c r="L175" t="s">
         <v>77</v>
@@ -12310,25 +12151,25 @@
         <v>18</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O175" t="s">
-        <v>19</v>
-      </c>
-      <c r="P175" t="s">
+        <v>22</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>22</v>
+      </c>
+      <c r="R175" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S175">
         <v>20</v>
       </c>
-      <c r="Q175" t="s">
-        <v>19</v>
-      </c>
-      <c r="R175" t="s">
-        <v>21</v>
-      </c>
-      <c r="S175">
-        <v>17</v>
-      </c>
       <c r="T175" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12336,7 +12177,7 @@
         <v>2023</v>
       </c>
       <c r="B176">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C176" s="17" t="s">
         <v>173</v>
@@ -12351,10 +12192,10 @@
         <v>211</v>
       </c>
       <c r="G176">
-        <v>4.9691081927319702</v>
+        <v>12.99507414592</v>
       </c>
       <c r="H176" s="4">
-        <v>45093.486157407409</v>
+        <v>45093.552777777775</v>
       </c>
       <c r="I176" t="s">
         <v>77</v>
@@ -12363,7 +12204,7 @@
         <v>3</v>
       </c>
       <c r="K176" s="4">
-        <v>45093.486157407409</v>
+        <v>45093.552777777775</v>
       </c>
       <c r="L176" t="s">
         <v>77</v>
@@ -12387,7 +12228,7 @@
         <v>21</v>
       </c>
       <c r="S176">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T176" t="s">
         <v>19</v>
@@ -12398,7 +12239,7 @@
         <v>2023</v>
       </c>
       <c r="B177">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C177" s="17" t="s">
         <v>173</v>
@@ -12413,10 +12254,10 @@
         <v>212</v>
       </c>
       <c r="G177">
-        <v>0.316324089870406</v>
+        <v>118.601511250474</v>
       </c>
       <c r="H177" s="4">
-        <v>45093.486620370371</v>
+        <v>45093.556759259256</v>
       </c>
       <c r="I177" t="s">
         <v>77</v>
@@ -12425,7 +12266,7 @@
         <v>3</v>
       </c>
       <c r="K177" s="4">
-        <v>45093.486620370371</v>
+        <v>45093.556759259256</v>
       </c>
       <c r="L177" t="s">
         <v>77</v>
@@ -12434,25 +12275,25 @@
         <v>18</v>
       </c>
       <c r="N177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O177" t="s">
-        <v>19</v>
-      </c>
-      <c r="P177" t="s">
+        <v>22</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>22</v>
+      </c>
+      <c r="R177" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S177">
         <v>20</v>
       </c>
-      <c r="Q177" t="s">
-        <v>19</v>
-      </c>
-      <c r="R177" t="s">
-        <v>21</v>
-      </c>
-      <c r="S177">
-        <v>17</v>
-      </c>
       <c r="T177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12460,7 +12301,7 @@
         <v>2023</v>
       </c>
       <c r="B178">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C178" s="17" t="s">
         <v>173</v>
@@ -12475,10 +12316,10 @@
         <v>213</v>
       </c>
       <c r="G178">
-        <v>4.7324865299487202</v>
+        <v>31.971963094645901</v>
       </c>
       <c r="H178" s="4">
-        <v>45093.488692129627</v>
+        <v>45093.55736111111</v>
       </c>
       <c r="I178" t="s">
         <v>77</v>
@@ -12487,7 +12328,7 @@
         <v>3</v>
       </c>
       <c r="K178" s="4">
-        <v>45093.488692129627</v>
+        <v>45093.55736111111</v>
       </c>
       <c r="L178" t="s">
         <v>77</v>
@@ -12496,22 +12337,22 @@
         <v>18</v>
       </c>
       <c r="N178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O178" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q178" t="s">
-        <v>19</v>
-      </c>
-      <c r="R178" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R178" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S178">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T178" t="s">
         <v>19</v>
@@ -12522,7 +12363,7 @@
         <v>2023</v>
       </c>
       <c r="B179">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C179" s="17" t="s">
         <v>173</v>
@@ -12537,10 +12378,10 @@
         <v>214</v>
       </c>
       <c r="G179">
-        <v>51.645954439438697</v>
+        <v>85.849908392403094</v>
       </c>
       <c r="H179" s="4">
-        <v>45093.489710648151</v>
+        <v>45093.566203703704</v>
       </c>
       <c r="I179" t="s">
         <v>77</v>
@@ -12549,7 +12390,7 @@
         <v>3</v>
       </c>
       <c r="K179" s="4">
-        <v>45093.489710648151</v>
+        <v>45093.566203703704</v>
       </c>
       <c r="L179" t="s">
         <v>77</v>
@@ -12558,10 +12399,10 @@
         <v>18</v>
       </c>
       <c r="N179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O179" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P179" s="2" t="s">
         <v>32</v>
@@ -12573,7 +12414,7 @@
         <v>24</v>
       </c>
       <c r="S179">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T179" t="s">
         <v>19</v>
@@ -12584,7 +12425,7 @@
         <v>2023</v>
       </c>
       <c r="B180">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C180" s="17" t="s">
         <v>173</v>
@@ -12599,10 +12440,10 @@
         <v>215</v>
       </c>
       <c r="G180">
-        <v>0.79213272275101498</v>
+        <v>15.555926476320799</v>
       </c>
       <c r="H180" s="4">
-        <v>45093.490277777775</v>
+        <v>45093.571840277778</v>
       </c>
       <c r="I180" t="s">
         <v>77</v>
@@ -12611,7 +12452,7 @@
         <v>3</v>
       </c>
       <c r="K180" s="4">
-        <v>45093.490277777775</v>
+        <v>45093.571840277778</v>
       </c>
       <c r="L180" t="s">
         <v>77</v>
@@ -12620,7 +12461,7 @@
         <v>18</v>
       </c>
       <c r="N180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O180" t="s">
         <v>19</v>
@@ -12629,16 +12470,16 @@
         <v>32</v>
       </c>
       <c r="Q180" t="s">
-        <v>19</v>
-      </c>
-      <c r="R180" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R180" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S180">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T180" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12646,7 +12487,7 @@
         <v>2023</v>
       </c>
       <c r="B181">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C181" s="17" t="s">
         <v>173</v>
@@ -12661,10 +12502,10 @@
         <v>216</v>
       </c>
       <c r="G181">
-        <v>44.056598965990403</v>
+        <v>10.197570771722701</v>
       </c>
       <c r="H181" s="4">
-        <v>45093.490879629629</v>
+        <v>45093.572187500002</v>
       </c>
       <c r="I181" t="s">
         <v>77</v>
@@ -12673,7 +12514,7 @@
         <v>3</v>
       </c>
       <c r="K181" s="4">
-        <v>45093.490879629629</v>
+        <v>45093.572187500002</v>
       </c>
       <c r="L181" t="s">
         <v>77</v>
@@ -12685,22 +12526,22 @@
         <v>1</v>
       </c>
       <c r="O181" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P181" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q181" t="s">
-        <v>22</v>
-      </c>
-      <c r="R181" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R181" t="s">
+        <v>21</v>
       </c>
       <c r="S181">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12708,7 +12549,7 @@
         <v>2023</v>
       </c>
       <c r="B182">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C182" s="17" t="s">
         <v>173</v>
@@ -12723,10 +12564,10 @@
         <v>217</v>
       </c>
       <c r="G182">
-        <v>127.156988485799</v>
+        <v>14.879063885882999</v>
       </c>
       <c r="H182" s="4">
-        <v>45093.491967592592</v>
+        <v>45103.296909722223</v>
       </c>
       <c r="I182" t="s">
         <v>77</v>
@@ -12735,7 +12576,7 @@
         <v>3</v>
       </c>
       <c r="K182" s="4">
-        <v>45093.491967592592</v>
+        <v>45103.296909722223</v>
       </c>
       <c r="L182" t="s">
         <v>77</v>
@@ -12744,22 +12585,22 @@
         <v>18</v>
       </c>
       <c r="N182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O182" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P182" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q182" t="s">
-        <v>22</v>
-      </c>
-      <c r="R182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R182" t="s">
+        <v>21</v>
+      </c>
+      <c r="S182">
         <v>24</v>
-      </c>
-      <c r="S182">
-        <v>17</v>
       </c>
       <c r="T182" t="s">
         <v>19</v>
@@ -12770,7 +12611,7 @@
         <v>2023</v>
       </c>
       <c r="B183">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C183" s="17" t="s">
         <v>173</v>
@@ -12785,10 +12626,10 @@
         <v>218</v>
       </c>
       <c r="G183">
-        <v>65.774238029234994</v>
+        <v>71.860727994029801</v>
       </c>
       <c r="H183" s="4">
-        <v>45093.492939814816</v>
+        <v>45103.298067129632</v>
       </c>
       <c r="I183" t="s">
         <v>77</v>
@@ -12797,7 +12638,7 @@
         <v>3</v>
       </c>
       <c r="K183" s="4">
-        <v>45093.492939814816</v>
+        <v>45103.298067129632</v>
       </c>
       <c r="L183" t="s">
         <v>77</v>
@@ -12815,13 +12656,13 @@
         <v>32</v>
       </c>
       <c r="Q183" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R183" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S183">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="T183" t="s">
         <v>19</v>
@@ -12832,7 +12673,7 @@
         <v>2023</v>
       </c>
       <c r="B184">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C184" s="17" t="s">
         <v>173</v>
@@ -12847,10 +12688,10 @@
         <v>219</v>
       </c>
       <c r="G184">
-        <v>1.35133060225505</v>
+        <v>79.582527480445506</v>
       </c>
       <c r="H184" s="4">
-        <v>45093.49386574074</v>
+        <v>45103.310023148151</v>
       </c>
       <c r="I184" t="s">
         <v>77</v>
@@ -12859,7 +12700,7 @@
         <v>3</v>
       </c>
       <c r="K184" s="4">
-        <v>45093.49386574074</v>
+        <v>45103.310023148151</v>
       </c>
       <c r="L184" t="s">
         <v>77</v>
@@ -12868,22 +12709,22 @@
         <v>18</v>
       </c>
       <c r="N184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O184" t="s">
         <v>19</v>
       </c>
-      <c r="P184" t="s">
-        <v>20</v>
+      <c r="P184" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q184" t="s">
         <v>19</v>
       </c>
-      <c r="R184" t="s">
-        <v>30</v>
+      <c r="R184" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S184">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="T184" t="s">
         <v>19</v>
@@ -12894,7 +12735,7 @@
         <v>2023</v>
       </c>
       <c r="B185">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C185" s="17" t="s">
         <v>173</v>
@@ -12909,10 +12750,10 @@
         <v>220</v>
       </c>
       <c r="G185">
-        <v>53.151782850366402</v>
+        <v>30.020493485715701</v>
       </c>
       <c r="H185" s="4">
-        <v>45093.494953703703</v>
+        <v>45103.311226851853</v>
       </c>
       <c r="I185" t="s">
         <v>77</v>
@@ -12921,7 +12762,7 @@
         <v>3</v>
       </c>
       <c r="K185" s="4">
-        <v>45093.494953703703</v>
+        <v>45103.311226851853</v>
       </c>
       <c r="L185" t="s">
         <v>77</v>
@@ -12933,19 +12774,19 @@
         <v>1</v>
       </c>
       <c r="O185" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P185" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q185" t="s">
-        <v>22</v>
-      </c>
-      <c r="R185" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R185" t="s">
+        <v>21</v>
       </c>
       <c r="S185">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="T185" t="s">
         <v>19</v>
@@ -12956,7 +12797,7 @@
         <v>2023</v>
       </c>
       <c r="B186">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C186" s="17" t="s">
         <v>173</v>
@@ -12971,10 +12812,10 @@
         <v>221</v>
       </c>
       <c r="G186">
-        <v>182.13562863205601</v>
+        <v>73.856630275911698</v>
       </c>
       <c r="H186" s="4">
-        <v>45093.496678240743</v>
+        <v>45103.312280092592</v>
       </c>
       <c r="I186" t="s">
         <v>77</v>
@@ -12983,7 +12824,7 @@
         <v>3</v>
       </c>
       <c r="K186" s="4">
-        <v>45093.496678240743</v>
+        <v>45103.312280092592</v>
       </c>
       <c r="L186" t="s">
         <v>77</v>
@@ -13007,7 +12848,7 @@
         <v>24</v>
       </c>
       <c r="S186">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="T186" t="s">
         <v>19</v>
@@ -13018,7 +12859,7 @@
         <v>2023</v>
       </c>
       <c r="B187">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C187" s="17" t="s">
         <v>173</v>
@@ -13033,10 +12874,10 @@
         <v>222</v>
       </c>
       <c r="G187">
-        <v>44.272449432250497</v>
+        <v>256.63647124007502</v>
       </c>
       <c r="H187" s="4">
-        <v>45093.550011574072</v>
+        <v>45103.315578703703</v>
       </c>
       <c r="I187" t="s">
         <v>77</v>
@@ -13045,7 +12886,7 @@
         <v>3</v>
       </c>
       <c r="K187" s="4">
-        <v>45093.550011574072</v>
+        <v>45103.315578703703</v>
       </c>
       <c r="L187" t="s">
         <v>77</v>
@@ -13054,7 +12895,7 @@
         <v>18</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O187" t="s">
         <v>22</v>
@@ -13069,7 +12910,7 @@
         <v>24</v>
       </c>
       <c r="S187">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T187" t="s">
         <v>19</v>
@@ -13080,7 +12921,7 @@
         <v>2023</v>
       </c>
       <c r="B188">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C188" s="17" t="s">
         <v>173</v>
@@ -13095,10 +12936,10 @@
         <v>223</v>
       </c>
       <c r="G188">
-        <v>104.055036981996</v>
+        <v>28.662553490647898</v>
       </c>
       <c r="H188" s="4">
-        <v>45093.551134259258</v>
+        <v>45103.316400462965</v>
       </c>
       <c r="I188" t="s">
         <v>77</v>
@@ -13107,7 +12948,7 @@
         <v>3</v>
       </c>
       <c r="K188" s="4">
-        <v>45093.551134259258</v>
+        <v>45103.317418981482</v>
       </c>
       <c r="L188" t="s">
         <v>77</v>
@@ -13125,13 +12966,13 @@
         <v>32</v>
       </c>
       <c r="Q188" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R188" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S188">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T188" t="s">
         <v>19</v>
@@ -13142,7 +12983,7 @@
         <v>2023</v>
       </c>
       <c r="B189">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C189" s="17" t="s">
         <v>173</v>
@@ -13157,10 +12998,10 @@
         <v>224</v>
       </c>
       <c r="G189">
-        <v>106.915375037224</v>
+        <v>55.760251663864402</v>
       </c>
       <c r="H189" s="4">
-        <v>45093.552037037036</v>
+        <v>45103.376608796294</v>
       </c>
       <c r="I189" t="s">
         <v>77</v>
@@ -13169,7 +13010,7 @@
         <v>3</v>
       </c>
       <c r="K189" s="4">
-        <v>45093.552037037036</v>
+        <v>45103.376608796294</v>
       </c>
       <c r="L189" t="s">
         <v>77</v>
@@ -13178,10 +13019,10 @@
         <v>18</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O189" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P189" s="2" t="s">
         <v>32</v>
@@ -13193,7 +13034,7 @@
         <v>24</v>
       </c>
       <c r="S189">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T189" t="s">
         <v>19</v>
@@ -13204,7 +13045,7 @@
         <v>2023</v>
       </c>
       <c r="B190">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C190" s="17" t="s">
         <v>173</v>
@@ -13219,10 +13060,10 @@
         <v>225</v>
       </c>
       <c r="G190">
-        <v>12.99507414592</v>
+        <v>44.246327861592697</v>
       </c>
       <c r="H190" s="4">
-        <v>45093.552777777775</v>
+        <v>45103.386041666665</v>
       </c>
       <c r="I190" t="s">
         <v>77</v>
@@ -13231,7 +13072,7 @@
         <v>3</v>
       </c>
       <c r="K190" s="4">
-        <v>45093.552777777775</v>
+        <v>45103.386041666665</v>
       </c>
       <c r="L190" t="s">
         <v>77</v>
@@ -13240,22 +13081,22 @@
         <v>18</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O190" t="s">
         <v>19</v>
       </c>
-      <c r="P190" t="s">
-        <v>20</v>
+      <c r="P190" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q190" t="s">
-        <v>19</v>
-      </c>
-      <c r="R190" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R190" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S190">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T190" t="s">
         <v>19</v>
@@ -13266,7 +13107,7 @@
         <v>2023</v>
       </c>
       <c r="B191">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C191" s="17" t="s">
         <v>173</v>
@@ -13281,10 +13122,10 @@
         <v>226</v>
       </c>
       <c r="G191">
-        <v>18.6244709577504</v>
+        <v>19.539849280787401</v>
       </c>
       <c r="H191" s="4">
-        <v>45093.554201388892</v>
+        <v>45103.386655092596</v>
       </c>
       <c r="I191" t="s">
         <v>77</v>
@@ -13293,7 +13134,7 @@
         <v>3</v>
       </c>
       <c r="K191" s="4">
-        <v>45093.554201388892</v>
+        <v>45103.386655092596</v>
       </c>
       <c r="L191" t="s">
         <v>77</v>
@@ -13302,22 +13143,22 @@
         <v>18</v>
       </c>
       <c r="N191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O191" t="s">
-        <v>22</v>
-      </c>
-      <c r="P191" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="P191" t="s">
+        <v>20</v>
       </c>
       <c r="Q191" t="s">
-        <v>22</v>
-      </c>
-      <c r="R191" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R191" t="s">
+        <v>21</v>
       </c>
       <c r="S191">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T191" t="s">
         <v>19</v>
@@ -13328,7 +13169,7 @@
         <v>2023</v>
       </c>
       <c r="B192">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C192" s="17" t="s">
         <v>173</v>
@@ -13343,10 +13184,10 @@
         <v>227</v>
       </c>
       <c r="G192">
-        <v>118.601511250474</v>
+        <v>20.2510472690767</v>
       </c>
       <c r="H192" s="4">
-        <v>45093.556759259256</v>
+        <v>45103.388043981482</v>
       </c>
       <c r="I192" t="s">
         <v>77</v>
@@ -13355,7 +13196,7 @@
         <v>3</v>
       </c>
       <c r="K192" s="4">
-        <v>45093.556759259256</v>
+        <v>45103.388043981482</v>
       </c>
       <c r="L192" t="s">
         <v>77</v>
@@ -13364,22 +13205,22 @@
         <v>18</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O192" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P192" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q192" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R192" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S192">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T192" t="s">
         <v>19</v>
@@ -13390,7 +13231,7 @@
         <v>2023</v>
       </c>
       <c r="B193">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C193" s="17" t="s">
         <v>173</v>
@@ -13405,10 +13246,10 @@
         <v>228</v>
       </c>
       <c r="G193">
-        <v>31.971963094645901</v>
+        <v>9.5809903731863404</v>
       </c>
       <c r="H193" s="4">
-        <v>45093.55736111111</v>
+        <v>45103.388472222221</v>
       </c>
       <c r="I193" t="s">
         <v>77</v>
@@ -13417,7 +13258,7 @@
         <v>3</v>
       </c>
       <c r="K193" s="4">
-        <v>45093.55736111111</v>
+        <v>45103.388472222221</v>
       </c>
       <c r="L193" t="s">
         <v>77</v>
@@ -13426,22 +13267,22 @@
         <v>18</v>
       </c>
       <c r="N193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O193" t="s">
-        <v>22</v>
-      </c>
-      <c r="P193" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="P193" t="s">
+        <v>20</v>
       </c>
       <c r="Q193" t="s">
-        <v>22</v>
-      </c>
-      <c r="R193" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R193" t="s">
+        <v>21</v>
       </c>
       <c r="S193">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T193" t="s">
         <v>19</v>
@@ -13452,7 +13293,7 @@
         <v>2023</v>
       </c>
       <c r="B194">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C194" s="17" t="s">
         <v>173</v>
@@ -13467,10 +13308,10 @@
         <v>229</v>
       </c>
       <c r="G194">
-        <v>18.321606734179198</v>
+        <v>51.878863913497298</v>
       </c>
       <c r="H194" s="4">
-        <v>45093.557905092595</v>
+        <v>45103.401956018519</v>
       </c>
       <c r="I194" t="s">
         <v>77</v>
@@ -13479,7 +13320,7 @@
         <v>3</v>
       </c>
       <c r="K194" s="4">
-        <v>45093.557905092595</v>
+        <v>45103.401956018519</v>
       </c>
       <c r="L194" t="s">
         <v>77</v>
@@ -13488,22 +13329,22 @@
         <v>18</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O194" t="s">
         <v>19</v>
       </c>
-      <c r="P194" t="s">
-        <v>20</v>
+      <c r="P194" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q194" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R194" t="s">
         <v>21</v>
       </c>
       <c r="S194">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="T194" t="s">
         <v>19</v>
@@ -13514,7 +13355,7 @@
         <v>2023</v>
       </c>
       <c r="B195">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C195" s="17" t="s">
         <v>173</v>
@@ -13529,10 +13370,10 @@
         <v>230</v>
       </c>
       <c r="G195">
-        <v>10.3686250315221</v>
+        <v>124.714045526498</v>
       </c>
       <c r="H195" s="4">
-        <v>45093.56449074074</v>
+        <v>45103.568344907406</v>
       </c>
       <c r="I195" t="s">
         <v>77</v>
@@ -13541,7 +13382,7 @@
         <v>3</v>
       </c>
       <c r="K195" s="4">
-        <v>45093.56449074074</v>
+        <v>45103.568344907406</v>
       </c>
       <c r="L195" t="s">
         <v>77</v>
@@ -13550,22 +13391,22 @@
         <v>18</v>
       </c>
       <c r="N195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O195" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P195" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q195" t="s">
-        <v>19</v>
-      </c>
-      <c r="R195" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R195" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S195">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="T195" t="s">
         <v>19</v>
@@ -13576,7 +13417,7 @@
         <v>2023</v>
       </c>
       <c r="B196">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C196" s="17" t="s">
         <v>173</v>
@@ -13591,10 +13432,10 @@
         <v>231</v>
       </c>
       <c r="G196">
-        <v>85.849908392403094</v>
+        <v>111.510607129495</v>
       </c>
       <c r="H196" s="4">
-        <v>45093.566203703704</v>
+        <v>45103.569907407407</v>
       </c>
       <c r="I196" t="s">
         <v>77</v>
@@ -13603,7 +13444,7 @@
         <v>3</v>
       </c>
       <c r="K196" s="4">
-        <v>45093.566203703704</v>
+        <v>45103.569907407407</v>
       </c>
       <c r="L196" t="s">
         <v>77</v>
@@ -13615,7 +13456,7 @@
         <v>2</v>
       </c>
       <c r="O196" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P196" s="2" t="s">
         <v>32</v>
@@ -13627,7 +13468,7 @@
         <v>24</v>
       </c>
       <c r="S196">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="T196" t="s">
         <v>19</v>
@@ -13638,7 +13479,7 @@
         <v>2023</v>
       </c>
       <c r="B197">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C197" s="17" t="s">
         <v>173</v>
@@ -13653,10 +13494,10 @@
         <v>232</v>
       </c>
       <c r="G197">
-        <v>131.62130675005599</v>
+        <v>48.002417303711503</v>
       </c>
       <c r="H197" s="4">
-        <v>45093.568553240744</v>
+        <v>45103.573425925926</v>
       </c>
       <c r="I197" t="s">
         <v>77</v>
@@ -13665,7 +13506,7 @@
         <v>3</v>
       </c>
       <c r="K197" s="4">
-        <v>45093.568553240744</v>
+        <v>45103.573425925926</v>
       </c>
       <c r="L197" t="s">
         <v>77</v>
@@ -13674,22 +13515,22 @@
         <v>18</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O197" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q197" t="s">
-        <v>19</v>
-      </c>
-      <c r="R197" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="R197" t="s">
+        <v>21</v>
       </c>
       <c r="S197">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="T197" t="s">
         <v>19</v>
@@ -13700,7 +13541,7 @@
         <v>2023</v>
       </c>
       <c r="B198">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C198" s="17" t="s">
         <v>173</v>
@@ -13715,10 +13556,10 @@
         <v>233</v>
       </c>
       <c r="G198">
-        <v>43.324898200119897</v>
+        <v>1.2775928149515801</v>
       </c>
       <c r="H198" s="4">
-        <v>45093.569675925923</v>
+        <v>45103.573784722219</v>
       </c>
       <c r="I198" t="s">
         <v>77</v>
@@ -13727,7 +13568,7 @@
         <v>3</v>
       </c>
       <c r="K198" s="4">
-        <v>45093.569675925923</v>
+        <v>45103.573784722219</v>
       </c>
       <c r="L198" t="s">
         <v>77</v>
@@ -13736,22 +13577,22 @@
         <v>18</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O198" t="s">
-        <v>22</v>
-      </c>
-      <c r="P198" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="P198" t="s">
+        <v>20</v>
       </c>
       <c r="Q198" t="s">
-        <v>22</v>
-      </c>
-      <c r="R198" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R198" t="s">
+        <v>21</v>
       </c>
       <c r="S198">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="T198" t="s">
         <v>19</v>
@@ -13762,7 +13603,7 @@
         <v>2023</v>
       </c>
       <c r="B199">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>173</v>
@@ -13777,10 +13618,10 @@
         <v>234</v>
       </c>
       <c r="G199">
-        <v>16.209067921930799</v>
+        <v>125.66793816903601</v>
       </c>
       <c r="H199" s="4">
-        <v>45093.570208333331</v>
+        <v>45103.574861111112</v>
       </c>
       <c r="I199" t="s">
         <v>77</v>
@@ -13789,7 +13630,7 @@
         <v>3</v>
       </c>
       <c r="K199" s="4">
-        <v>45093.570208333331</v>
+        <v>45103.574861111112</v>
       </c>
       <c r="L199" t="s">
         <v>77</v>
@@ -13798,22 +13639,22 @@
         <v>18</v>
       </c>
       <c r="N199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O199" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q199" t="s">
-        <v>19</v>
-      </c>
-      <c r="R199" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R199" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S199">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="T199" t="s">
         <v>19</v>
@@ -13824,7 +13665,7 @@
         <v>2023</v>
       </c>
       <c r="B200">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C200" s="17" t="s">
         <v>173</v>
@@ -13839,10 +13680,10 @@
         <v>235</v>
       </c>
       <c r="G200">
-        <v>15.555926476320799</v>
+        <v>170.81942490956601</v>
       </c>
       <c r="H200" s="4">
-        <v>45093.571840277778</v>
+        <v>45103.584606481483</v>
       </c>
       <c r="I200" t="s">
         <v>77</v>
@@ -13851,7 +13692,7 @@
         <v>3</v>
       </c>
       <c r="K200" s="4">
-        <v>45093.571840277778</v>
+        <v>45103.584606481483</v>
       </c>
       <c r="L200" t="s">
         <v>77</v>
@@ -13875,18 +13716,18 @@
         <v>24</v>
       </c>
       <c r="S200">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="T200" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2023</v>
       </c>
       <c r="B201">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>173</v>
@@ -13901,10 +13742,10 @@
         <v>236</v>
       </c>
       <c r="G201">
-        <v>10.197570771722701</v>
+        <v>6.5801171898941897</v>
       </c>
       <c r="H201" s="4">
-        <v>45093.572187500002</v>
+        <v>45103.585729166669</v>
       </c>
       <c r="I201" t="s">
         <v>77</v>
@@ -13913,7 +13754,7 @@
         <v>3</v>
       </c>
       <c r="K201" s="4">
-        <v>45093.572187500002</v>
+        <v>45103.585729166669</v>
       </c>
       <c r="L201" t="s">
         <v>77</v>
@@ -13925,10 +13766,10 @@
         <v>1</v>
       </c>
       <c r="O201" t="s">
-        <v>22</v>
-      </c>
-      <c r="P201" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="P201" t="s">
+        <v>20</v>
       </c>
       <c r="Q201" t="s">
         <v>19</v>
@@ -13937,10 +13778,10 @@
         <v>21</v>
       </c>
       <c r="S201">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="T201" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -13948,7 +13789,7 @@
         <v>2023</v>
       </c>
       <c r="B202">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>173</v>
@@ -13963,10 +13804,10 @@
         <v>237</v>
       </c>
       <c r="G202">
-        <v>14.879063885882999</v>
+        <v>65.127440184974304</v>
       </c>
       <c r="H202" s="4">
-        <v>45103.296909722223</v>
+        <v>45103.589016203703</v>
       </c>
       <c r="I202" t="s">
         <v>77</v>
@@ -13975,7 +13816,7 @@
         <v>3</v>
       </c>
       <c r="K202" s="4">
-        <v>45103.296909722223</v>
+        <v>45103.589016203703</v>
       </c>
       <c r="L202" t="s">
         <v>77</v>
@@ -13984,7 +13825,7 @@
         <v>18</v>
       </c>
       <c r="N202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O202" t="s">
         <v>19</v>
@@ -13993,13 +13834,13 @@
         <v>32</v>
       </c>
       <c r="Q202" t="s">
-        <v>19</v>
-      </c>
-      <c r="R202" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S202">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="T202" t="s">
         <v>19</v>
@@ -14010,7 +13851,7 @@
         <v>2023</v>
       </c>
       <c r="B203">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>173</v>
@@ -14025,10 +13866,10 @@
         <v>238</v>
       </c>
       <c r="G203">
-        <v>71.860727994029801</v>
+        <v>47.816203629407902</v>
       </c>
       <c r="H203" s="4">
-        <v>45103.298067129632</v>
+        <v>45103.589699074073</v>
       </c>
       <c r="I203" t="s">
         <v>77</v>
@@ -14037,7 +13878,7 @@
         <v>3</v>
       </c>
       <c r="K203" s="4">
-        <v>45103.298067129632</v>
+        <v>45103.589699074073</v>
       </c>
       <c r="L203" t="s">
         <v>77</v>
@@ -14049,19 +13890,19 @@
         <v>2</v>
       </c>
       <c r="O203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P203" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q203" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R203" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S203">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="T203" t="s">
         <v>19</v>
@@ -14072,7 +13913,7 @@
         <v>2023</v>
       </c>
       <c r="B204">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>173</v>
@@ -14087,10 +13928,10 @@
         <v>239</v>
       </c>
       <c r="G204">
-        <v>79.582527480445506</v>
+        <v>161.622824315255</v>
       </c>
       <c r="H204" s="4">
-        <v>45103.310023148151</v>
+        <v>45103.590902777774</v>
       </c>
       <c r="I204" t="s">
         <v>77</v>
@@ -14099,7 +13940,7 @@
         <v>3</v>
       </c>
       <c r="K204" s="4">
-        <v>45103.310023148151</v>
+        <v>45103.590902777774</v>
       </c>
       <c r="L204" t="s">
         <v>77</v>
@@ -14108,22 +13949,22 @@
         <v>18</v>
       </c>
       <c r="N204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O204" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q204" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R204" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S204">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="T204" t="s">
         <v>19</v>
@@ -14134,7 +13975,7 @@
         <v>2023</v>
       </c>
       <c r="B205">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>173</v>
@@ -14149,10 +13990,10 @@
         <v>240</v>
       </c>
       <c r="G205">
-        <v>30.020493485715701</v>
+        <v>135.74821944556899</v>
       </c>
       <c r="H205" s="4">
-        <v>45103.311226851853</v>
+        <v>45104.275694444441</v>
       </c>
       <c r="I205" t="s">
         <v>77</v>
@@ -14161,7 +14002,7 @@
         <v>3</v>
       </c>
       <c r="K205" s="4">
-        <v>45103.311226851853</v>
+        <v>45104.287581018521</v>
       </c>
       <c r="L205" t="s">
         <v>77</v>
@@ -14170,22 +14011,22 @@
         <v>18</v>
       </c>
       <c r="N205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O205" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P205" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q205" t="s">
-        <v>19</v>
-      </c>
-      <c r="R205" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S205">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="T205" t="s">
         <v>19</v>
@@ -14196,7 +14037,7 @@
         <v>2023</v>
       </c>
       <c r="B206">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>173</v>
@@ -14211,10 +14052,10 @@
         <v>241</v>
       </c>
       <c r="G206">
-        <v>73.856630275911698</v>
+        <v>239.83982300799201</v>
       </c>
       <c r="H206" s="4">
-        <v>45103.312280092592</v>
+        <v>45104.282337962963</v>
       </c>
       <c r="I206" t="s">
         <v>77</v>
@@ -14223,7 +14064,7 @@
         <v>3</v>
       </c>
       <c r="K206" s="4">
-        <v>45103.312280092592</v>
+        <v>45104.282337962963</v>
       </c>
       <c r="L206" t="s">
         <v>77</v>
@@ -14232,13 +14073,13 @@
         <v>18</v>
       </c>
       <c r="N206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O206" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P206" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q206" t="s">
         <v>22</v>
@@ -14247,7 +14088,7 @@
         <v>24</v>
       </c>
       <c r="S206">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="T206" t="s">
         <v>19</v>
@@ -14258,7 +14099,7 @@
         <v>2023</v>
       </c>
       <c r="B207">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C207" s="17" t="s">
         <v>173</v>
@@ -14273,10 +14114,10 @@
         <v>242</v>
       </c>
       <c r="G207">
-        <v>256.63647124007502</v>
+        <v>33.420836086559802</v>
       </c>
       <c r="H207" s="4">
-        <v>45103.315578703703</v>
+        <v>45104.285127314812</v>
       </c>
       <c r="I207" t="s">
         <v>77</v>
@@ -14285,7 +14126,7 @@
         <v>3</v>
       </c>
       <c r="K207" s="4">
-        <v>45103.315578703703</v>
+        <v>45104.285127314812</v>
       </c>
       <c r="L207" t="s">
         <v>77</v>
@@ -14294,22 +14135,22 @@
         <v>18</v>
       </c>
       <c r="N207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O207" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q207" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R207" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S207">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="T207" t="s">
         <v>19</v>
@@ -14320,7 +14161,7 @@
         <v>2023</v>
       </c>
       <c r="B208">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>173</v>
@@ -14335,10 +14176,10 @@
         <v>243</v>
       </c>
       <c r="G208">
-        <v>28.662553490647898</v>
+        <v>25.5410517673198</v>
       </c>
       <c r="H208" s="4">
-        <v>45103.316400462965</v>
+        <v>45104.29420138889</v>
       </c>
       <c r="I208" t="s">
         <v>77</v>
@@ -14347,7 +14188,7 @@
         <v>3</v>
       </c>
       <c r="K208" s="4">
-        <v>45103.317418981482</v>
+        <v>45104.294560185182</v>
       </c>
       <c r="L208" t="s">
         <v>77</v>
@@ -14356,10 +14197,10 @@
         <v>18</v>
       </c>
       <c r="N208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O208" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P208" s="2" t="s">
         <v>32</v>
@@ -14367,22 +14208,22 @@
       <c r="Q208" t="s">
         <v>19</v>
       </c>
-      <c r="R208" s="2" t="s">
-        <v>24</v>
+      <c r="R208" t="s">
+        <v>21</v>
       </c>
       <c r="S208">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T208" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2023</v>
       </c>
       <c r="B209">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C209" s="17" t="s">
         <v>173</v>
@@ -14397,10 +14238,10 @@
         <v>244</v>
       </c>
       <c r="G209">
-        <v>55.760251663864402</v>
+        <v>1.0221321334178499</v>
       </c>
       <c r="H209" s="4">
-        <v>45103.376608796294</v>
+        <v>45104.295381944445</v>
       </c>
       <c r="I209" t="s">
         <v>77</v>
@@ -14409,7 +14250,7 @@
         <v>3</v>
       </c>
       <c r="K209" s="4">
-        <v>45103.376608796294</v>
+        <v>45104.295381944445</v>
       </c>
       <c r="L209" t="s">
         <v>77</v>
@@ -14418,25 +14259,25 @@
         <v>18</v>
       </c>
       <c r="N209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O209" t="s">
         <v>19</v>
       </c>
-      <c r="P209" s="2" t="s">
-        <v>32</v>
+      <c r="P209" t="s">
+        <v>20</v>
       </c>
       <c r="Q209" t="s">
-        <v>22</v>
-      </c>
-      <c r="R209" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R209" t="s">
+        <v>21</v>
       </c>
       <c r="S209">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="T209" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14444,7 +14285,7 @@
         <v>2023</v>
       </c>
       <c r="B210">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>173</v>
@@ -14459,10 +14300,10 @@
         <v>245</v>
       </c>
       <c r="G210">
-        <v>75.674914795146194</v>
+        <v>5.2720207226521296</v>
       </c>
       <c r="H210" s="4">
-        <v>45103.377476851849</v>
+        <v>45104.295949074076</v>
       </c>
       <c r="I210" t="s">
         <v>77</v>
@@ -14471,7 +14312,7 @@
         <v>3</v>
       </c>
       <c r="K210" s="4">
-        <v>45103.377476851849</v>
+        <v>45104.295949074076</v>
       </c>
       <c r="L210" t="s">
         <v>77</v>
@@ -14480,7 +14321,7 @@
         <v>18</v>
       </c>
       <c r="N210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O210" t="s">
         <v>19</v>
@@ -14489,13 +14330,13 @@
         <v>32</v>
       </c>
       <c r="Q210" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R210" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S210">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="T210" t="s">
         <v>19</v>
@@ -14506,7 +14347,7 @@
         <v>2023</v>
       </c>
       <c r="B211">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C211" s="17" t="s">
         <v>173</v>
@@ -14521,10 +14362,10 @@
         <v>246</v>
       </c>
       <c r="G211">
-        <v>61.6342493949318</v>
+        <v>5.0613729702417798</v>
       </c>
       <c r="H211" s="4">
-        <v>45103.378622685188</v>
+        <v>45104.296620370369</v>
       </c>
       <c r="I211" t="s">
         <v>77</v>
@@ -14533,7 +14374,7 @@
         <v>3</v>
       </c>
       <c r="K211" s="4">
-        <v>45103.378622685188</v>
+        <v>45104.296620370369</v>
       </c>
       <c r="L211" t="s">
         <v>77</v>
@@ -14542,7 +14383,7 @@
         <v>18</v>
       </c>
       <c r="N211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O211" t="s">
         <v>19</v>
@@ -14551,13 +14392,13 @@
         <v>32</v>
       </c>
       <c r="Q211" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R211" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S211">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="T211" t="s">
         <v>19</v>
@@ -14568,7 +14409,7 @@
         <v>2023</v>
       </c>
       <c r="B212">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>173</v>
@@ -14583,10 +14424,10 @@
         <v>247</v>
       </c>
       <c r="G212">
-        <v>49.601159636377197</v>
+        <v>1.21433850310252</v>
       </c>
       <c r="H212" s="4">
-        <v>45103.379583333335</v>
+        <v>45104.300821759258</v>
       </c>
       <c r="I212" t="s">
         <v>77</v>
@@ -14595,7 +14436,7 @@
         <v>3</v>
       </c>
       <c r="K212" s="4">
-        <v>45103.379583333335</v>
+        <v>45104.300821759258</v>
       </c>
       <c r="L212" t="s">
         <v>77</v>
@@ -14604,22 +14445,22 @@
         <v>18</v>
       </c>
       <c r="N212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O212" t="s">
         <v>19</v>
       </c>
-      <c r="P212" s="2" t="s">
-        <v>32</v>
+      <c r="P212" t="s">
+        <v>20</v>
       </c>
       <c r="Q212" t="s">
-        <v>22</v>
-      </c>
-      <c r="R212" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R212" t="s">
+        <v>21</v>
       </c>
       <c r="S212">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="T212" t="s">
         <v>19</v>
@@ -14630,7 +14471,7 @@
         <v>2023</v>
       </c>
       <c r="B213">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C213" s="17" t="s">
         <v>173</v>
@@ -14645,10 +14486,10 @@
         <v>248</v>
       </c>
       <c r="G213">
-        <v>1.5094399035413599</v>
+        <v>16.1268629734416</v>
       </c>
       <c r="H213" s="4">
-        <v>45103.379988425928</v>
+        <v>45104.301990740743</v>
       </c>
       <c r="I213" t="s">
         <v>77</v>
@@ -14657,7 +14498,7 @@
         <v>3</v>
       </c>
       <c r="K213" s="4">
-        <v>45103.379988425928</v>
+        <v>45104.301990740743</v>
       </c>
       <c r="L213" t="s">
         <v>77</v>
@@ -14666,13 +14507,13 @@
         <v>18</v>
       </c>
       <c r="N213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O213" t="s">
-        <v>19</v>
-      </c>
-      <c r="P213" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="P213" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q213" t="s">
         <v>19</v>
@@ -14681,10 +14522,10 @@
         <v>21</v>
       </c>
       <c r="S213">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="T213" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14692,7 +14533,7 @@
         <v>2023</v>
       </c>
       <c r="B214">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C214" s="17" t="s">
         <v>173</v>
@@ -14707,10 +14548,10 @@
         <v>249</v>
       </c>
       <c r="G214">
-        <v>2.3778280807407799</v>
+        <v>44.822739146392202</v>
       </c>
       <c r="H214" s="4">
-        <v>45103.380381944444</v>
+        <v>45104.313449074078</v>
       </c>
       <c r="I214" t="s">
         <v>77</v>
@@ -14719,7 +14560,7 @@
         <v>3</v>
       </c>
       <c r="K214" s="4">
-        <v>45103.380381944444</v>
+        <v>45104.313449074078</v>
       </c>
       <c r="L214" t="s">
         <v>77</v>
@@ -14731,19 +14572,19 @@
         <v>1</v>
       </c>
       <c r="O214" t="s">
-        <v>19</v>
-      </c>
-      <c r="P214" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="P214" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q214" t="s">
         <v>19</v>
       </c>
-      <c r="R214" t="s">
-        <v>21</v>
+      <c r="R214" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S214">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T214" t="s">
         <v>19</v>
@@ -14754,7 +14595,7 @@
         <v>2023</v>
       </c>
       <c r="B215">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C215" s="17" t="s">
         <v>173</v>
@@ -14769,10 +14610,10 @@
         <v>250</v>
       </c>
       <c r="G215">
-        <v>74.879067911176506</v>
+        <v>32.218774278702298</v>
       </c>
       <c r="H215" s="4">
-        <v>45103.384467592594</v>
+        <v>45104.318831018521</v>
       </c>
       <c r="I215" t="s">
         <v>77</v>
@@ -14781,7 +14622,7 @@
         <v>3</v>
       </c>
       <c r="K215" s="4">
-        <v>45103.384467592594</v>
+        <v>45104.318831018521</v>
       </c>
       <c r="L215" t="s">
         <v>77</v>
@@ -14790,7 +14631,7 @@
         <v>18</v>
       </c>
       <c r="N215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O215" t="s">
         <v>19</v>
@@ -14799,13 +14640,13 @@
         <v>32</v>
       </c>
       <c r="Q215" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R215" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S215">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T215" t="s">
         <v>19</v>
@@ -14816,7 +14657,7 @@
         <v>2023</v>
       </c>
       <c r="B216">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>173</v>
@@ -14831,10 +14672,10 @@
         <v>251</v>
       </c>
       <c r="G216">
-        <v>4.3060775939014704</v>
+        <v>20.113849991299698</v>
       </c>
       <c r="H216" s="4">
-        <v>45103.384942129633</v>
+        <v>45104.320300925923</v>
       </c>
       <c r="I216" t="s">
         <v>77</v>
@@ -14843,7 +14684,7 @@
         <v>3</v>
       </c>
       <c r="K216" s="4">
-        <v>45103.384942129633</v>
+        <v>45104.320300925923</v>
       </c>
       <c r="L216" t="s">
         <v>77</v>
@@ -14855,30 +14696,30 @@
         <v>1</v>
       </c>
       <c r="O216" t="s">
-        <v>19</v>
-      </c>
-      <c r="P216" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="P216" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q216" t="s">
         <v>19</v>
       </c>
-      <c r="R216" t="s">
-        <v>21</v>
+      <c r="R216" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S216">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T216" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2023</v>
       </c>
       <c r="B217">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>173</v>
@@ -14893,10 +14734,10 @@
         <v>252</v>
       </c>
       <c r="G217">
-        <v>19.0601149606467</v>
+        <v>4.1465634961718099</v>
       </c>
       <c r="H217" s="4">
-        <v>45103.385393518518</v>
+        <v>45104.370104166665</v>
       </c>
       <c r="I217" t="s">
         <v>77</v>
@@ -14905,7 +14746,7 @@
         <v>3</v>
       </c>
       <c r="K217" s="4">
-        <v>45103.385393518518</v>
+        <v>45104.370104166665</v>
       </c>
       <c r="L217" t="s">
         <v>77</v>
@@ -14914,25 +14755,25 @@
         <v>18</v>
       </c>
       <c r="N217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O217" t="s">
         <v>19</v>
       </c>
-      <c r="P217" s="2" t="s">
-        <v>32</v>
+      <c r="P217" t="s">
+        <v>20</v>
       </c>
       <c r="Q217" t="s">
         <v>19</v>
       </c>
-      <c r="R217" s="2" t="s">
-        <v>24</v>
+      <c r="R217" t="s">
+        <v>21</v>
       </c>
       <c r="S217">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="T217" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14940,7 +14781,7 @@
         <v>2023</v>
       </c>
       <c r="B218">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>173</v>
@@ -14955,10 +14796,10 @@
         <v>253</v>
       </c>
       <c r="G218">
-        <v>44.246327861592697</v>
+        <v>32.567642428405499</v>
       </c>
       <c r="H218" s="4">
-        <v>45103.386041666665</v>
+        <v>45104.370995370373</v>
       </c>
       <c r="I218" t="s">
         <v>77</v>
@@ -14967,7 +14808,7 @@
         <v>3</v>
       </c>
       <c r="K218" s="4">
-        <v>45103.386041666665</v>
+        <v>45104.370995370373</v>
       </c>
       <c r="L218" t="s">
         <v>77</v>
@@ -14976,7 +14817,7 @@
         <v>18</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O218" t="s">
         <v>19</v>
@@ -14985,13 +14826,13 @@
         <v>32</v>
       </c>
       <c r="Q218" t="s">
-        <v>22</v>
-      </c>
-      <c r="R218" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R218" t="s">
+        <v>21</v>
       </c>
       <c r="S218">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="T218" t="s">
         <v>19</v>
@@ -15002,7 +14843,7 @@
         <v>2023</v>
       </c>
       <c r="B219">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C219" s="17" t="s">
         <v>173</v>
@@ -15017,10 +14858,10 @@
         <v>254</v>
       </c>
       <c r="G219">
-        <v>19.539849280787401</v>
+        <v>56.107735622264499</v>
       </c>
       <c r="H219" s="4">
-        <v>45103.386655092596</v>
+        <v>45104.374490740738</v>
       </c>
       <c r="I219" t="s">
         <v>77</v>
@@ -15029,7 +14870,7 @@
         <v>3</v>
       </c>
       <c r="K219" s="4">
-        <v>45103.386655092596</v>
+        <v>45104.374490740738</v>
       </c>
       <c r="L219" t="s">
         <v>77</v>
@@ -15038,22 +14879,22 @@
         <v>18</v>
       </c>
       <c r="N219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O219" t="s">
         <v>19</v>
       </c>
-      <c r="P219" t="s">
-        <v>20</v>
+      <c r="P219" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q219" t="s">
-        <v>19</v>
-      </c>
-      <c r="R219" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R219" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S219">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="T219" t="s">
         <v>19</v>
@@ -15064,7 +14905,7 @@
         <v>2023</v>
       </c>
       <c r="B220">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C220" s="17" t="s">
         <v>173</v>
@@ -15079,10 +14920,10 @@
         <v>255</v>
       </c>
       <c r="G220">
-        <v>20.2510472690767</v>
+        <v>66.305523476281493</v>
       </c>
       <c r="H220" s="4">
-        <v>45103.388043981482</v>
+        <v>45104.375231481485</v>
       </c>
       <c r="I220" t="s">
         <v>77</v>
@@ -15091,7 +14932,7 @@
         <v>3</v>
       </c>
       <c r="K220" s="4">
-        <v>45103.388043981482</v>
+        <v>45104.375231481485</v>
       </c>
       <c r="L220" t="s">
         <v>77</v>
@@ -15100,7 +14941,7 @@
         <v>18</v>
       </c>
       <c r="N220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O220" t="s">
         <v>19</v>
@@ -15109,24 +14950,24 @@
         <v>32</v>
       </c>
       <c r="Q220" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R220" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S220">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="T220" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2023</v>
       </c>
       <c r="B221">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>173</v>
@@ -15141,10 +14982,10 @@
         <v>256</v>
       </c>
       <c r="G221">
-        <v>9.5809903731863404</v>
+        <v>8.8167979511779606</v>
       </c>
       <c r="H221" s="4">
-        <v>45103.388472222221</v>
+        <v>45104.375625000001</v>
       </c>
       <c r="I221" t="s">
         <v>77</v>
@@ -15153,7 +14994,7 @@
         <v>3</v>
       </c>
       <c r="K221" s="4">
-        <v>45103.388472222221</v>
+        <v>45104.375625000001</v>
       </c>
       <c r="L221" t="s">
         <v>77</v>
@@ -15162,13 +15003,13 @@
         <v>18</v>
       </c>
       <c r="N221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O221" t="s">
         <v>19</v>
       </c>
-      <c r="P221" t="s">
-        <v>20</v>
+      <c r="P221" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q221" t="s">
         <v>19</v>
@@ -15177,10 +15018,10 @@
         <v>21</v>
       </c>
       <c r="S221">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="T221" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -15188,7 +15029,7 @@
         <v>2023</v>
       </c>
       <c r="B222">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>173</v>
@@ -15203,10 +15044,10 @@
         <v>257</v>
       </c>
       <c r="G222">
-        <v>51.878863913497298</v>
+        <v>5.5073880543090397</v>
       </c>
       <c r="H222" s="4">
-        <v>45103.401956018519</v>
+        <v>45104.376238425924</v>
       </c>
       <c r="I222" t="s">
         <v>77</v>
@@ -15215,7 +15056,7 @@
         <v>3</v>
       </c>
       <c r="K222" s="4">
-        <v>45103.401956018519</v>
+        <v>45104.376238425924</v>
       </c>
       <c r="L222" t="s">
         <v>77</v>
@@ -15224,33 +15065,33 @@
         <v>18</v>
       </c>
       <c r="N222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O222" t="s">
         <v>19</v>
       </c>
-      <c r="P222" s="2" t="s">
-        <v>32</v>
+      <c r="P222" t="s">
+        <v>20</v>
       </c>
       <c r="Q222" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R222" t="s">
         <v>21</v>
       </c>
       <c r="S222">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="T222" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2023</v>
       </c>
       <c r="B223">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C223" s="17" t="s">
         <v>173</v>
@@ -15265,10 +15106,10 @@
         <v>258</v>
       </c>
       <c r="G223">
-        <v>37.457738297693901</v>
+        <v>5.3809540630113597</v>
       </c>
       <c r="H223" s="4">
-        <v>45103.516898148147</v>
+        <v>45104.376863425925</v>
       </c>
       <c r="I223" t="s">
         <v>77</v>
@@ -15277,7 +15118,7 @@
         <v>3</v>
       </c>
       <c r="K223" s="4">
-        <v>45103.516898148147</v>
+        <v>45104.376863425925</v>
       </c>
       <c r="L223" t="s">
         <v>77</v>
@@ -15286,25 +15127,25 @@
         <v>18</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O223" t="s">
-        <v>22</v>
-      </c>
-      <c r="P223" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="P223" t="s">
+        <v>20</v>
       </c>
       <c r="Q223" t="s">
-        <v>22</v>
-      </c>
-      <c r="R223" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R223" t="s">
+        <v>21</v>
       </c>
       <c r="S223">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="T223" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -15312,7 +15153,7 @@
         <v>2023</v>
       </c>
       <c r="B224">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C224" s="17" t="s">
         <v>173</v>
@@ -15327,10 +15168,10 @@
         <v>259</v>
       </c>
       <c r="G224">
-        <v>8.7675525588226293</v>
+        <v>2.8431655127300299</v>
       </c>
       <c r="H224" s="4">
-        <v>45103.565717592595</v>
+        <v>45104.377303240741</v>
       </c>
       <c r="I224" t="s">
         <v>77</v>
@@ -15339,7 +15180,7 @@
         <v>3</v>
       </c>
       <c r="K224" s="4">
-        <v>45103.565717592595</v>
+        <v>45104.377303240741</v>
       </c>
       <c r="L224" t="s">
         <v>77</v>
@@ -15348,25 +15189,25 @@
         <v>18</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O224" t="s">
         <v>19</v>
       </c>
-      <c r="P224" s="2" t="s">
-        <v>32</v>
+      <c r="P224" t="s">
+        <v>20</v>
       </c>
       <c r="Q224" t="s">
-        <v>22</v>
-      </c>
-      <c r="R224" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R224" t="s">
+        <v>21</v>
       </c>
       <c r="S224">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="T224" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -15374,7 +15215,7 @@
         <v>2023</v>
       </c>
       <c r="B225">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>173</v>
@@ -15389,10 +15230,10 @@
         <v>260</v>
       </c>
       <c r="G225">
-        <v>124.714045526498</v>
+        <v>82.492131428896897</v>
       </c>
       <c r="H225" s="4">
-        <v>45103.568344907406</v>
+        <v>45104.403113425928</v>
       </c>
       <c r="I225" t="s">
         <v>77</v>
@@ -15401,7 +15242,7 @@
         <v>3</v>
       </c>
       <c r="K225" s="4">
-        <v>45103.568344907406</v>
+        <v>45104.403113425928</v>
       </c>
       <c r="L225" t="s">
         <v>77</v>
@@ -15425,7 +15266,7 @@
         <v>24</v>
       </c>
       <c r="S225">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T225" t="s">
         <v>19</v>
@@ -15436,7 +15277,7 @@
         <v>2023</v>
       </c>
       <c r="B226">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="C226" s="17" t="s">
         <v>173</v>
@@ -15451,10 +15292,10 @@
         <v>261</v>
       </c>
       <c r="G226">
-        <v>111.510607129495</v>
+        <v>1.5202103597102501</v>
       </c>
       <c r="H226" s="4">
-        <v>45103.569907407407</v>
+        <v>45104.403599537036</v>
       </c>
       <c r="I226" t="s">
         <v>77</v>
@@ -15463,7 +15304,7 @@
         <v>3</v>
       </c>
       <c r="K226" s="4">
-        <v>45103.569907407407</v>
+        <v>45104.403599537036</v>
       </c>
       <c r="L226" t="s">
         <v>77</v>
@@ -15472,33 +15313,33 @@
         <v>18</v>
       </c>
       <c r="N226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O226" t="s">
         <v>19</v>
       </c>
-      <c r="P226" s="2" t="s">
-        <v>32</v>
+      <c r="P226" t="s">
+        <v>20</v>
       </c>
       <c r="Q226" t="s">
-        <v>22</v>
-      </c>
-      <c r="R226" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R226" t="s">
+        <v>21</v>
       </c>
       <c r="S226">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T226" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2023</v>
       </c>
       <c r="B227">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>173</v>
@@ -15513,10 +15354,10 @@
         <v>262</v>
       </c>
       <c r="G227">
-        <v>64.422108279745402</v>
+        <v>1.47989206100796</v>
       </c>
       <c r="H227" s="4">
-        <v>45103.570601851854</v>
+        <v>45104.404062499998</v>
       </c>
       <c r="I227" t="s">
         <v>77</v>
@@ -15525,7 +15366,7 @@
         <v>3</v>
       </c>
       <c r="K227" s="4">
-        <v>45103.570601851854</v>
+        <v>45104.404062499998</v>
       </c>
       <c r="L227" t="s">
         <v>77</v>
@@ -15539,20 +15380,20 @@
       <c r="O227" t="s">
         <v>19</v>
       </c>
-      <c r="P227" s="2" t="s">
-        <v>32</v>
+      <c r="P227" t="s">
+        <v>20</v>
       </c>
       <c r="Q227" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R227" t="s">
         <v>21</v>
       </c>
       <c r="S227">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T227" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -15560,7 +15401,7 @@
         <v>2023</v>
       </c>
       <c r="B228">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C228" s="17" t="s">
         <v>173</v>
@@ -15575,10 +15416,10 @@
         <v>263</v>
       </c>
       <c r="G228">
-        <v>2.0756537514153099</v>
+        <v>112.00808346401401</v>
       </c>
       <c r="H228" s="4">
-        <v>45103.572025462963</v>
+        <v>45104.405138888891</v>
       </c>
       <c r="I228" t="s">
         <v>77</v>
@@ -15587,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="K228" s="4">
-        <v>45103.572025462963</v>
+        <v>45104.405138888891</v>
       </c>
       <c r="L228" t="s">
         <v>77</v>
@@ -15596,22 +15437,22 @@
         <v>18</v>
       </c>
       <c r="N228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O228" t="s">
         <v>19</v>
       </c>
-      <c r="P228" t="s">
-        <v>20</v>
+      <c r="P228" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q228" t="s">
-        <v>19</v>
-      </c>
-      <c r="R228" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="R228" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S228">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T228" t="s">
         <v>19</v>
@@ -15622,7 +15463,7 @@
         <v>2023</v>
       </c>
       <c r="B229">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>173</v>
@@ -15637,10 +15478,10 @@
         <v>264</v>
       </c>
       <c r="G229">
-        <v>48.002417303711503</v>
+        <v>174.10985800563299</v>
       </c>
       <c r="H229" s="4">
-        <v>45103.573425925926</v>
+        <v>45104.406458333331</v>
       </c>
       <c r="I229" t="s">
         <v>77</v>
@@ -15649,7 +15490,7 @@
         <v>3</v>
       </c>
       <c r="K229" s="4">
-        <v>45103.573425925926</v>
+        <v>45104.406458333331</v>
       </c>
       <c r="L229" t="s">
         <v>77</v>
@@ -15658,22 +15499,22 @@
         <v>18</v>
       </c>
       <c r="N229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O229" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P229" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q229" t="s">
         <v>22</v>
       </c>
-      <c r="R229" t="s">
-        <v>21</v>
+      <c r="R229" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S229">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T229" t="s">
         <v>19</v>
@@ -15684,7 +15525,7 @@
         <v>2023</v>
       </c>
       <c r="B230">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C230" s="17" t="s">
         <v>173</v>
@@ -15699,10 +15540,10 @@
         <v>265</v>
       </c>
       <c r="G230">
-        <v>1.2775928149515801</v>
+        <v>30.086610211197399</v>
       </c>
       <c r="H230" s="4">
-        <v>45103.573784722219</v>
+        <v>45104.409675925926</v>
       </c>
       <c r="I230" t="s">
         <v>77</v>
@@ -15711,7 +15552,7 @@
         <v>3</v>
       </c>
       <c r="K230" s="4">
-        <v>45103.573784722219</v>
+        <v>45104.409675925926</v>
       </c>
       <c r="L230" t="s">
         <v>77</v>
@@ -15725,17 +15566,17 @@
       <c r="O230" t="s">
         <v>19</v>
       </c>
-      <c r="P230" t="s">
-        <v>20</v>
+      <c r="P230" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="Q230" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R230" t="s">
         <v>21</v>
       </c>
       <c r="S230">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T230" t="s">
         <v>19</v>
@@ -15746,7 +15587,7 @@
         <v>2023</v>
       </c>
       <c r="B231">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C231" s="17" t="s">
         <v>173</v>
@@ -15761,10 +15602,10 @@
         <v>266</v>
       </c>
       <c r="G231">
-        <v>125.66793816903601</v>
+        <v>60.2123807600559</v>
       </c>
       <c r="H231" s="4">
-        <v>45103.574861111112</v>
+        <v>45104.41070601852</v>
       </c>
       <c r="I231" t="s">
         <v>77</v>
@@ -15773,7 +15614,7 @@
         <v>3</v>
       </c>
       <c r="K231" s="4">
-        <v>45103.574861111112</v>
+        <v>45104.41070601852</v>
       </c>
       <c r="L231" t="s">
         <v>77</v>
@@ -15782,33 +15623,33 @@
         <v>18</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O231" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P231" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q231" t="s">
         <v>22</v>
       </c>
-      <c r="R231" s="2" t="s">
-        <v>24</v>
+      <c r="R231" t="s">
+        <v>21</v>
       </c>
       <c r="S231">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T231" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2023</v>
       </c>
       <c r="B232">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C232" s="17" t="s">
         <v>173</v>
@@ -15823,10 +15664,10 @@
         <v>267</v>
       </c>
       <c r="G232">
-        <v>103.229829758493</v>
+        <v>3.5620070302865998</v>
       </c>
       <c r="H232" s="4">
-        <v>45103.582337962966</v>
+        <v>45104.411087962966</v>
       </c>
       <c r="I232" t="s">
         <v>77</v>
@@ -15835,7 +15676,7 @@
         <v>3</v>
       </c>
       <c r="K232" s="4">
-        <v>45103.582337962966</v>
+        <v>45104.411087962966</v>
       </c>
       <c r="L232" t="s">
         <v>77</v>
@@ -15844,3318 +15685,38 @@
         <v>18</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O232" t="s">
         <v>19</v>
       </c>
-      <c r="P232" s="2" t="s">
-        <v>32</v>
+      <c r="P232" t="s">
+        <v>20</v>
       </c>
       <c r="Q232" t="s">
         <v>19</v>
       </c>
-      <c r="R232" s="2" t="s">
-        <v>24</v>
+      <c r="R232" t="s">
+        <v>21</v>
       </c>
       <c r="S232">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T232" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>2023</v>
-      </c>
-      <c r="B233">
-        <v>96</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D233" s="17">
-        <v>40</v>
-      </c>
-      <c r="E233" s="17">
-        <v>23</v>
-      </c>
-      <c r="F233" t="s">
-        <v>268</v>
-      </c>
-      <c r="G233">
-        <v>9.2472902842412505</v>
-      </c>
-      <c r="H233" s="4">
-        <v>45103.582939814813</v>
-      </c>
-      <c r="I233" t="s">
-        <v>77</v>
-      </c>
-      <c r="J233" s="2">
-        <v>3</v>
-      </c>
-      <c r="K233" s="4">
-        <v>45103.582939814813</v>
-      </c>
-      <c r="L233" t="s">
-        <v>77</v>
-      </c>
-      <c r="M233" t="s">
-        <v>18</v>
-      </c>
-      <c r="N233">
-        <v>1</v>
-      </c>
-      <c r="O233" t="s">
-        <v>19</v>
-      </c>
-      <c r="P233" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q233" t="s">
-        <v>19</v>
-      </c>
-      <c r="R233" t="s">
-        <v>21</v>
-      </c>
-      <c r="S233">
-        <v>51</v>
-      </c>
-      <c r="T233" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>2023</v>
-      </c>
-      <c r="B234">
-        <v>97</v>
-      </c>
-      <c r="C234" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D234" s="17">
-        <v>40</v>
-      </c>
-      <c r="E234" s="17">
-        <v>23</v>
-      </c>
-      <c r="F234" t="s">
-        <v>269</v>
-      </c>
-      <c r="G234">
-        <v>170.81942490956601</v>
-      </c>
-      <c r="H234" s="4">
-        <v>45103.584606481483</v>
-      </c>
-      <c r="I234" t="s">
-        <v>77</v>
-      </c>
-      <c r="J234" s="2">
-        <v>3</v>
-      </c>
-      <c r="K234" s="4">
-        <v>45103.584606481483</v>
-      </c>
-      <c r="L234" t="s">
-        <v>77</v>
-      </c>
-      <c r="M234" t="s">
-        <v>18</v>
-      </c>
-      <c r="N234">
-        <v>2</v>
-      </c>
-      <c r="O234" t="s">
-        <v>19</v>
-      </c>
-      <c r="P234" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>22</v>
-      </c>
-      <c r="R234" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S234">
-        <v>51</v>
-      </c>
-      <c r="T234" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>2023</v>
-      </c>
-      <c r="B235">
-        <v>98</v>
-      </c>
-      <c r="C235" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D235" s="17">
-        <v>40</v>
-      </c>
-      <c r="E235" s="17">
-        <v>23</v>
-      </c>
-      <c r="F235" t="s">
-        <v>270</v>
-      </c>
-      <c r="G235">
-        <v>6.5801171898941897</v>
-      </c>
-      <c r="H235" s="4">
-        <v>45103.585729166669</v>
-      </c>
-      <c r="I235" t="s">
-        <v>77</v>
-      </c>
-      <c r="J235" s="2">
-        <v>3</v>
-      </c>
-      <c r="K235" s="4">
-        <v>45103.585729166669</v>
-      </c>
-      <c r="L235" t="s">
-        <v>77</v>
-      </c>
-      <c r="M235" t="s">
-        <v>18</v>
-      </c>
-      <c r="N235">
-        <v>1</v>
-      </c>
-      <c r="O235" t="s">
-        <v>19</v>
-      </c>
-      <c r="P235" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>19</v>
-      </c>
-      <c r="R235" t="s">
-        <v>21</v>
-      </c>
-      <c r="S235">
-        <v>51</v>
-      </c>
-      <c r="T235" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>2023</v>
-      </c>
-      <c r="B236">
-        <v>99</v>
-      </c>
-      <c r="C236" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D236" s="17">
-        <v>40</v>
-      </c>
-      <c r="E236" s="17">
-        <v>23</v>
-      </c>
-      <c r="F236" t="s">
-        <v>271</v>
-      </c>
-      <c r="G236">
-        <v>3.5016738195964399</v>
-      </c>
-      <c r="H236" s="4">
-        <v>45103.586273148147</v>
-      </c>
-      <c r="I236" t="s">
-        <v>77</v>
-      </c>
-      <c r="J236" s="2">
-        <v>3</v>
-      </c>
-      <c r="K236" s="4">
-        <v>45103.586273148147</v>
-      </c>
-      <c r="L236" t="s">
-        <v>77</v>
-      </c>
-      <c r="M236" t="s">
-        <v>18</v>
-      </c>
-      <c r="N236">
-        <v>1</v>
-      </c>
-      <c r="O236" t="s">
-        <v>19</v>
-      </c>
-      <c r="P236" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>19</v>
-      </c>
-      <c r="R236" t="s">
-        <v>21</v>
-      </c>
-      <c r="S236">
-        <v>51</v>
-      </c>
-      <c r="T236" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>2023</v>
-      </c>
-      <c r="B237">
-        <v>100</v>
-      </c>
-      <c r="C237" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D237" s="17">
-        <v>40</v>
-      </c>
-      <c r="E237" s="17">
-        <v>23</v>
-      </c>
-      <c r="F237" t="s">
-        <v>272</v>
-      </c>
-      <c r="G237">
-        <v>76.094789990707</v>
-      </c>
-      <c r="H237" s="4">
-        <v>45103.586817129632</v>
-      </c>
-      <c r="I237" t="s">
-        <v>77</v>
-      </c>
-      <c r="J237" s="2">
-        <v>3</v>
-      </c>
-      <c r="K237" s="4">
-        <v>45103.587280092594</v>
-      </c>
-      <c r="L237" t="s">
-        <v>77</v>
-      </c>
-      <c r="M237" t="s">
-        <v>18</v>
-      </c>
-      <c r="N237">
-        <v>2</v>
-      </c>
-      <c r="O237" t="s">
-        <v>19</v>
-      </c>
-      <c r="P237" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>22</v>
-      </c>
-      <c r="R237" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S237">
-        <v>51</v>
-      </c>
-      <c r="T237" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>2023</v>
-      </c>
-      <c r="B238">
-        <v>101</v>
-      </c>
-      <c r="C238" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D238" s="17">
-        <v>40</v>
-      </c>
-      <c r="E238" s="17">
-        <v>23</v>
-      </c>
-      <c r="F238" t="s">
-        <v>273</v>
-      </c>
-      <c r="G238">
-        <v>182.702110802655</v>
-      </c>
-      <c r="H238" s="4">
-        <v>45103.588483796295</v>
-      </c>
-      <c r="I238" t="s">
-        <v>77</v>
-      </c>
-      <c r="J238" s="2">
-        <v>3</v>
-      </c>
-      <c r="K238" s="4">
-        <v>45103.588483796295</v>
-      </c>
-      <c r="L238" t="s">
-        <v>77</v>
-      </c>
-      <c r="M238" t="s">
-        <v>18</v>
-      </c>
-      <c r="N238">
-        <v>2</v>
-      </c>
-      <c r="O238" t="s">
-        <v>22</v>
-      </c>
-      <c r="P238" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>22</v>
-      </c>
-      <c r="R238" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S238">
-        <v>51</v>
-      </c>
-      <c r="T238" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>2023</v>
-      </c>
-      <c r="B239">
-        <v>102</v>
-      </c>
-      <c r="C239" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D239" s="17">
-        <v>40</v>
-      </c>
-      <c r="E239" s="17">
-        <v>23</v>
-      </c>
-      <c r="F239" t="s">
-        <v>274</v>
-      </c>
-      <c r="G239">
-        <v>65.127440184974304</v>
-      </c>
-      <c r="H239" s="4">
-        <v>45103.589016203703</v>
-      </c>
-      <c r="I239" t="s">
-        <v>77</v>
-      </c>
-      <c r="J239" s="2">
-        <v>3</v>
-      </c>
-      <c r="K239" s="4">
-        <v>45103.589016203703</v>
-      </c>
-      <c r="L239" t="s">
-        <v>77</v>
-      </c>
-      <c r="M239" t="s">
-        <v>18</v>
-      </c>
-      <c r="N239">
-        <v>2</v>
-      </c>
-      <c r="O239" t="s">
-        <v>19</v>
-      </c>
-      <c r="P239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q239" t="s">
-        <v>22</v>
-      </c>
-      <c r="R239" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S239">
-        <v>51</v>
-      </c>
-      <c r="T239" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>2023</v>
-      </c>
-      <c r="B240">
-        <v>103</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D240" s="17">
-        <v>40</v>
-      </c>
-      <c r="E240" s="17">
-        <v>23</v>
-      </c>
-      <c r="F240" t="s">
-        <v>275</v>
-      </c>
-      <c r="G240">
-        <v>47.816203629407902</v>
-      </c>
-      <c r="H240" s="4">
-        <v>45103.589699074073</v>
-      </c>
-      <c r="I240" t="s">
-        <v>77</v>
-      </c>
-      <c r="J240" s="2">
-        <v>3</v>
-      </c>
-      <c r="K240" s="4">
-        <v>45103.589699074073</v>
-      </c>
-      <c r="L240" t="s">
-        <v>77</v>
-      </c>
-      <c r="M240" t="s">
-        <v>18</v>
-      </c>
-      <c r="N240">
-        <v>2</v>
-      </c>
-      <c r="O240" t="s">
-        <v>19</v>
-      </c>
-      <c r="P240" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>22</v>
-      </c>
-      <c r="R240" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S240">
-        <v>51</v>
-      </c>
-      <c r="T240" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>2023</v>
-      </c>
-      <c r="B241">
-        <v>104</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D241" s="17">
-        <v>40</v>
-      </c>
-      <c r="E241" s="17">
-        <v>23</v>
-      </c>
-      <c r="F241" t="s">
-        <v>276</v>
-      </c>
-      <c r="G241">
-        <v>161.622824315255</v>
-      </c>
-      <c r="H241" s="4">
-        <v>45103.590902777774</v>
-      </c>
-      <c r="I241" t="s">
-        <v>77</v>
-      </c>
-      <c r="J241" s="2">
-        <v>3</v>
-      </c>
-      <c r="K241" s="4">
-        <v>45103.590902777774</v>
-      </c>
-      <c r="L241" t="s">
-        <v>77</v>
-      </c>
-      <c r="M241" t="s">
-        <v>18</v>
-      </c>
-      <c r="N241">
-        <v>3</v>
-      </c>
-      <c r="O241" t="s">
-        <v>22</v>
-      </c>
-      <c r="P241" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>22</v>
-      </c>
-      <c r="R241" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S241">
-        <v>51</v>
-      </c>
-      <c r="T241" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>2023</v>
-      </c>
-      <c r="B242">
-        <v>105</v>
-      </c>
-      <c r="C242" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D242" s="17">
-        <v>40</v>
-      </c>
-      <c r="E242" s="17">
-        <v>23</v>
-      </c>
-      <c r="F242" t="s">
-        <v>277</v>
-      </c>
-      <c r="G242">
-        <v>28.235637685987001</v>
-      </c>
-      <c r="H242" s="4">
-        <v>45103.591562499998</v>
-      </c>
-      <c r="I242" t="s">
-        <v>77</v>
-      </c>
-      <c r="J242" s="2">
-        <v>3</v>
-      </c>
-      <c r="K242" s="4">
-        <v>45103.591562499998</v>
-      </c>
-      <c r="L242" t="s">
-        <v>77</v>
-      </c>
-      <c r="M242" t="s">
-        <v>18</v>
-      </c>
-      <c r="N242">
-        <v>1</v>
-      </c>
-      <c r="O242" t="s">
-        <v>19</v>
-      </c>
-      <c r="P242" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>19</v>
-      </c>
-      <c r="R242" t="s">
-        <v>21</v>
-      </c>
-      <c r="S242">
-        <v>51</v>
-      </c>
-      <c r="T242" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>2023</v>
-      </c>
-      <c r="B243">
-        <v>106</v>
-      </c>
-      <c r="C243" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D243" s="17">
-        <v>40</v>
-      </c>
-      <c r="E243" s="17">
-        <v>23</v>
-      </c>
-      <c r="F243" t="s">
-        <v>278</v>
-      </c>
-      <c r="G243">
-        <v>135.74821944556899</v>
-      </c>
-      <c r="H243" s="4">
-        <v>45104.275694444441</v>
-      </c>
-      <c r="I243" t="s">
-        <v>77</v>
-      </c>
-      <c r="J243" s="2">
-        <v>3</v>
-      </c>
-      <c r="K243" s="4">
-        <v>45104.287581018521</v>
-      </c>
-      <c r="L243" t="s">
-        <v>77</v>
-      </c>
-      <c r="M243" t="s">
-        <v>18</v>
-      </c>
-      <c r="N243">
-        <v>3</v>
-      </c>
-      <c r="O243" t="s">
-        <v>22</v>
-      </c>
-      <c r="P243" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q243" t="s">
-        <v>22</v>
-      </c>
-      <c r="R243" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S243">
-        <v>43</v>
-      </c>
-      <c r="T243" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>2023</v>
-      </c>
-      <c r="B244">
-        <v>107</v>
-      </c>
-      <c r="C244" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D244" s="17">
-        <v>40</v>
-      </c>
-      <c r="E244" s="17">
-        <v>23</v>
-      </c>
-      <c r="F244" t="s">
-        <v>279</v>
-      </c>
-      <c r="G244">
-        <v>1.2592518769327901</v>
-      </c>
-      <c r="H244" s="4">
-        <v>45104.276817129627</v>
-      </c>
-      <c r="I244" t="s">
-        <v>77</v>
-      </c>
-      <c r="J244" s="2">
-        <v>3</v>
-      </c>
-      <c r="K244" s="4">
-        <v>45104.276817129627</v>
-      </c>
-      <c r="L244" t="s">
-        <v>77</v>
-      </c>
-      <c r="M244" t="s">
-        <v>18</v>
-      </c>
-      <c r="N244">
-        <v>1</v>
-      </c>
-      <c r="O244" t="s">
-        <v>19</v>
-      </c>
-      <c r="P244" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>19</v>
-      </c>
-      <c r="R244" t="s">
-        <v>21</v>
-      </c>
-      <c r="S244">
-        <v>43</v>
-      </c>
-      <c r="T244" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>2023</v>
-      </c>
-      <c r="B245">
-        <v>108</v>
-      </c>
-      <c r="C245" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D245" s="17">
-        <v>40</v>
-      </c>
-      <c r="E245" s="17">
-        <v>23</v>
-      </c>
-      <c r="F245" t="s">
-        <v>280</v>
-      </c>
-      <c r="G245">
-        <v>7.8281912837654097</v>
-      </c>
-      <c r="H245" s="4">
-        <v>45104.277488425927</v>
-      </c>
-      <c r="I245" t="s">
-        <v>77</v>
-      </c>
-      <c r="J245" s="2">
-        <v>3</v>
-      </c>
-      <c r="K245" s="4">
-        <v>45104.277488425927</v>
-      </c>
-      <c r="L245" t="s">
-        <v>77</v>
-      </c>
-      <c r="M245" t="s">
-        <v>18</v>
-      </c>
-      <c r="N245">
-        <v>1</v>
-      </c>
-      <c r="O245" t="s">
-        <v>19</v>
-      </c>
-      <c r="P245" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>19</v>
-      </c>
-      <c r="R245" t="s">
-        <v>21</v>
-      </c>
-      <c r="S245">
-        <v>43</v>
-      </c>
-      <c r="T245" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>2023</v>
-      </c>
-      <c r="B246">
-        <v>109</v>
-      </c>
-      <c r="C246" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D246" s="17">
-        <v>40</v>
-      </c>
-      <c r="E246" s="17">
-        <v>23</v>
-      </c>
-      <c r="F246" t="s">
-        <v>281</v>
-      </c>
-      <c r="G246">
-        <v>4.6282030070702298</v>
-      </c>
-      <c r="H246" s="4">
-        <v>45104.278009259258</v>
-      </c>
-      <c r="I246" t="s">
-        <v>77</v>
-      </c>
-      <c r="J246" s="2">
-        <v>3</v>
-      </c>
-      <c r="K246" s="4">
-        <v>45104.278009259258</v>
-      </c>
-      <c r="L246" t="s">
-        <v>77</v>
-      </c>
-      <c r="M246" t="s">
-        <v>18</v>
-      </c>
-      <c r="N246">
-        <v>1</v>
-      </c>
-      <c r="O246" t="s">
-        <v>19</v>
-      </c>
-      <c r="P246" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q246" t="s">
-        <v>19</v>
-      </c>
-      <c r="R246" t="s">
-        <v>21</v>
-      </c>
-      <c r="S246">
-        <v>43</v>
-      </c>
-      <c r="T246" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>2023</v>
-      </c>
-      <c r="B247">
-        <v>110</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D247" s="17">
-        <v>40</v>
-      </c>
-      <c r="E247" s="17">
-        <v>23</v>
-      </c>
-      <c r="F247" t="s">
-        <v>282</v>
-      </c>
-      <c r="G247">
-        <v>239.83982300799201</v>
-      </c>
-      <c r="H247" s="4">
-        <v>45104.282337962963</v>
-      </c>
-      <c r="I247" t="s">
-        <v>77</v>
-      </c>
-      <c r="J247" s="2">
-        <v>3</v>
-      </c>
-      <c r="K247" s="4">
-        <v>45104.282337962963</v>
-      </c>
-      <c r="L247" t="s">
-        <v>77</v>
-      </c>
-      <c r="M247" t="s">
-        <v>18</v>
-      </c>
-      <c r="N247">
-        <v>3</v>
-      </c>
-      <c r="O247" t="s">
-        <v>22</v>
-      </c>
-      <c r="P247" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q247" t="s">
-        <v>22</v>
-      </c>
-      <c r="R247" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S247">
-        <v>43</v>
-      </c>
-      <c r="T247" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>2023</v>
-      </c>
-      <c r="B248">
-        <v>111</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D248" s="17">
-        <v>40</v>
-      </c>
-      <c r="E248" s="17">
-        <v>23</v>
-      </c>
-      <c r="F248" t="s">
-        <v>283</v>
-      </c>
-      <c r="G248">
-        <v>176.24338420054301</v>
-      </c>
-      <c r="H248" s="4">
-        <v>45104.284236111111</v>
-      </c>
-      <c r="I248" t="s">
-        <v>77</v>
-      </c>
-      <c r="J248" s="2">
-        <v>3</v>
-      </c>
-      <c r="K248" s="4">
-        <v>45104.284236111111</v>
-      </c>
-      <c r="L248" t="s">
-        <v>77</v>
-      </c>
-      <c r="M248" t="s">
-        <v>18</v>
-      </c>
-      <c r="N248">
-        <v>3</v>
-      </c>
-      <c r="O248" t="s">
-        <v>19</v>
-      </c>
-      <c r="P248" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q248" t="s">
-        <v>22</v>
-      </c>
-      <c r="R248" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S248">
-        <v>43</v>
-      </c>
-      <c r="T248" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>2023</v>
-      </c>
-      <c r="B249">
-        <v>112</v>
-      </c>
-      <c r="C249" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D249" s="17">
-        <v>40</v>
-      </c>
-      <c r="E249" s="17">
-        <v>23</v>
-      </c>
-      <c r="F249" t="s">
-        <v>284</v>
-      </c>
-      <c r="G249">
-        <v>33.420836086559802</v>
-      </c>
-      <c r="H249" s="4">
-        <v>45104.285127314812</v>
-      </c>
-      <c r="I249" t="s">
-        <v>77</v>
-      </c>
-      <c r="J249" s="2">
-        <v>3</v>
-      </c>
-      <c r="K249" s="4">
-        <v>45104.285127314812</v>
-      </c>
-      <c r="L249" t="s">
-        <v>77</v>
-      </c>
-      <c r="M249" t="s">
-        <v>18</v>
-      </c>
-      <c r="N249">
-        <v>2</v>
-      </c>
-      <c r="O249" t="s">
-        <v>19</v>
-      </c>
-      <c r="P249" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q249" t="s">
-        <v>19</v>
-      </c>
-      <c r="R249" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S249">
-        <v>43</v>
-      </c>
-      <c r="T249" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>2023</v>
-      </c>
-      <c r="B250">
-        <v>113</v>
-      </c>
-      <c r="C250" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D250" s="17">
-        <v>40</v>
-      </c>
-      <c r="E250" s="17">
-        <v>23</v>
-      </c>
-      <c r="F250" t="s">
-        <v>285</v>
-      </c>
-      <c r="G250">
-        <v>25.5410517673198</v>
-      </c>
-      <c r="H250" s="4">
-        <v>45104.29420138889</v>
-      </c>
-      <c r="I250" t="s">
-        <v>77</v>
-      </c>
-      <c r="J250" s="2">
-        <v>3</v>
-      </c>
-      <c r="K250" s="4">
-        <v>45104.294560185182</v>
-      </c>
-      <c r="L250" t="s">
-        <v>77</v>
-      </c>
-      <c r="M250" t="s">
-        <v>18</v>
-      </c>
-      <c r="N250">
-        <v>1</v>
-      </c>
-      <c r="O250" t="s">
-        <v>19</v>
-      </c>
-      <c r="P250" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q250" t="s">
-        <v>19</v>
-      </c>
-      <c r="R250" t="s">
-        <v>21</v>
-      </c>
-      <c r="S250">
-        <v>44</v>
-      </c>
-      <c r="T250" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>2023</v>
-      </c>
-      <c r="B251">
-        <v>114</v>
-      </c>
-      <c r="C251" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D251" s="17">
-        <v>40</v>
-      </c>
-      <c r="E251" s="17">
-        <v>23</v>
-      </c>
-      <c r="F251" t="s">
-        <v>286</v>
-      </c>
-      <c r="G251">
-        <v>1.0221321334178499</v>
-      </c>
-      <c r="H251" s="4">
-        <v>45104.295381944445</v>
-      </c>
-      <c r="I251" t="s">
-        <v>77</v>
-      </c>
-      <c r="J251" s="2">
-        <v>3</v>
-      </c>
-      <c r="K251" s="4">
-        <v>45104.295381944445</v>
-      </c>
-      <c r="L251" t="s">
-        <v>77</v>
-      </c>
-      <c r="M251" t="s">
-        <v>18</v>
-      </c>
-      <c r="N251">
-        <v>1</v>
-      </c>
-      <c r="O251" t="s">
-        <v>19</v>
-      </c>
-      <c r="P251" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q251" t="s">
-        <v>19</v>
-      </c>
-      <c r="R251" t="s">
-        <v>21</v>
-      </c>
-      <c r="S251">
-        <v>44</v>
-      </c>
-      <c r="T251" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>2023</v>
-      </c>
-      <c r="B252">
-        <v>115</v>
-      </c>
-      <c r="C252" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D252" s="17">
-        <v>40</v>
-      </c>
-      <c r="E252" s="17">
-        <v>23</v>
-      </c>
-      <c r="F252" t="s">
-        <v>287</v>
-      </c>
-      <c r="G252">
-        <v>5.2720207226521296</v>
-      </c>
-      <c r="H252" s="4">
-        <v>45104.295949074076</v>
-      </c>
-      <c r="I252" t="s">
-        <v>77</v>
-      </c>
-      <c r="J252" s="2">
-        <v>3</v>
-      </c>
-      <c r="K252" s="4">
-        <v>45104.295949074076</v>
-      </c>
-      <c r="L252" t="s">
-        <v>77</v>
-      </c>
-      <c r="M252" t="s">
-        <v>18</v>
-      </c>
-      <c r="N252">
-        <v>1</v>
-      </c>
-      <c r="O252" t="s">
-        <v>19</v>
-      </c>
-      <c r="P252" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q252" t="s">
-        <v>19</v>
-      </c>
-      <c r="R252" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S252">
-        <v>44</v>
-      </c>
-      <c r="T252" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>2023</v>
-      </c>
-      <c r="B253">
-        <v>116</v>
-      </c>
-      <c r="C253" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D253" s="17">
-        <v>40</v>
-      </c>
-      <c r="E253" s="17">
-        <v>23</v>
-      </c>
-      <c r="F253" t="s">
-        <v>288</v>
-      </c>
-      <c r="G253">
-        <v>5.0613729702417798</v>
-      </c>
-      <c r="H253" s="4">
-        <v>45104.296620370369</v>
-      </c>
-      <c r="I253" t="s">
-        <v>77</v>
-      </c>
-      <c r="J253" s="2">
-        <v>3</v>
-      </c>
-      <c r="K253" s="4">
-        <v>45104.296620370369</v>
-      </c>
-      <c r="L253" t="s">
-        <v>77</v>
-      </c>
-      <c r="M253" t="s">
-        <v>18</v>
-      </c>
-      <c r="N253">
-        <v>1</v>
-      </c>
-      <c r="O253" t="s">
-        <v>19</v>
-      </c>
-      <c r="P253" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q253" t="s">
-        <v>19</v>
-      </c>
-      <c r="R253" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S253">
-        <v>44</v>
-      </c>
-      <c r="T253" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>2023</v>
-      </c>
-      <c r="B254">
-        <v>117</v>
-      </c>
-      <c r="C254" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D254" s="17">
-        <v>40</v>
-      </c>
-      <c r="E254" s="17">
-        <v>23</v>
-      </c>
-      <c r="F254" t="s">
-        <v>289</v>
-      </c>
-      <c r="G254">
-        <v>22.583738495409101</v>
-      </c>
-      <c r="H254" s="4">
-        <v>45104.298032407409</v>
-      </c>
-      <c r="I254" t="s">
-        <v>77</v>
-      </c>
-      <c r="J254" s="2">
-        <v>3</v>
-      </c>
-      <c r="K254" s="4">
-        <v>45104.298032407409</v>
-      </c>
-      <c r="L254" t="s">
-        <v>77</v>
-      </c>
-      <c r="M254" t="s">
-        <v>18</v>
-      </c>
-      <c r="N254">
-        <v>1</v>
-      </c>
-      <c r="O254" t="s">
-        <v>19</v>
-      </c>
-      <c r="P254" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q254" t="s">
-        <v>19</v>
-      </c>
-      <c r="R254" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S254">
-        <v>44</v>
-      </c>
-      <c r="T254" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>2023</v>
-      </c>
-      <c r="B255">
-        <v>118</v>
-      </c>
-      <c r="C255" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D255" s="17">
-        <v>40</v>
-      </c>
-      <c r="E255" s="17">
-        <v>23</v>
-      </c>
-      <c r="F255" t="s">
-        <v>290</v>
-      </c>
-      <c r="G255">
-        <v>1.21433850310252</v>
-      </c>
-      <c r="H255" s="4">
-        <v>45104.300821759258</v>
-      </c>
-      <c r="I255" t="s">
-        <v>77</v>
-      </c>
-      <c r="J255" s="2">
-        <v>3</v>
-      </c>
-      <c r="K255" s="4">
-        <v>45104.300821759258</v>
-      </c>
-      <c r="L255" t="s">
-        <v>77</v>
-      </c>
-      <c r="M255" t="s">
-        <v>18</v>
-      </c>
-      <c r="N255">
-        <v>1</v>
-      </c>
-      <c r="O255" t="s">
-        <v>19</v>
-      </c>
-      <c r="P255" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q255" t="s">
-        <v>19</v>
-      </c>
-      <c r="R255" t="s">
-        <v>21</v>
-      </c>
-      <c r="S255">
-        <v>44</v>
-      </c>
-      <c r="T255" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>2023</v>
-      </c>
-      <c r="B256">
-        <v>119</v>
-      </c>
-      <c r="C256" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D256" s="17">
-        <v>40</v>
-      </c>
-      <c r="E256" s="17">
-        <v>23</v>
-      </c>
-      <c r="F256" t="s">
-        <v>291</v>
-      </c>
-      <c r="G256">
-        <v>16.1268629734416</v>
-      </c>
-      <c r="H256" s="4">
-        <v>45104.301990740743</v>
-      </c>
-      <c r="I256" t="s">
-        <v>77</v>
-      </c>
-      <c r="J256" s="2">
-        <v>3</v>
-      </c>
-      <c r="K256" s="4">
-        <v>45104.301990740743</v>
-      </c>
-      <c r="L256" t="s">
-        <v>77</v>
-      </c>
-      <c r="M256" t="s">
-        <v>18</v>
-      </c>
-      <c r="N256">
-        <v>2</v>
-      </c>
-      <c r="O256" t="s">
-        <v>22</v>
-      </c>
-      <c r="P256" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q256" t="s">
-        <v>19</v>
-      </c>
-      <c r="R256" t="s">
-        <v>21</v>
-      </c>
-      <c r="S256">
-        <v>44</v>
-      </c>
-      <c r="T256" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>2023</v>
-      </c>
-      <c r="B257">
-        <v>120</v>
-      </c>
-      <c r="C257" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D257" s="17">
-        <v>40</v>
-      </c>
-      <c r="E257" s="17">
-        <v>23</v>
-      </c>
-      <c r="F257" t="s">
-        <v>292</v>
-      </c>
-      <c r="G257">
-        <v>10.062102462785599</v>
-      </c>
-      <c r="H257" s="4">
-        <v>45104.303472222222</v>
-      </c>
-      <c r="I257" t="s">
-        <v>77</v>
-      </c>
-      <c r="J257" s="2">
-        <v>3</v>
-      </c>
-      <c r="K257" s="4">
-        <v>45104.303472222222</v>
-      </c>
-      <c r="L257" t="s">
-        <v>77</v>
-      </c>
-      <c r="M257" t="s">
-        <v>18</v>
-      </c>
-      <c r="N257">
-        <v>1</v>
-      </c>
-      <c r="O257" t="s">
-        <v>19</v>
-      </c>
-      <c r="P257" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q257" t="s">
-        <v>19</v>
-      </c>
-      <c r="R257" t="s">
-        <v>21</v>
-      </c>
-      <c r="S257">
-        <v>44</v>
-      </c>
-      <c r="T257" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>2023</v>
-      </c>
-      <c r="B258">
-        <v>121</v>
-      </c>
-      <c r="C258" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D258" s="17">
-        <v>40</v>
-      </c>
-      <c r="E258" s="17">
-        <v>23</v>
-      </c>
-      <c r="F258" t="s">
-        <v>293</v>
-      </c>
-      <c r="G258">
-        <v>44.822739146392202</v>
-      </c>
-      <c r="H258" s="4">
-        <v>45104.313449074078</v>
-      </c>
-      <c r="I258" t="s">
-        <v>77</v>
-      </c>
-      <c r="J258" s="2">
-        <v>3</v>
-      </c>
-      <c r="K258" s="4">
-        <v>45104.313449074078</v>
-      </c>
-      <c r="L258" t="s">
-        <v>77</v>
-      </c>
-      <c r="M258" t="s">
-        <v>18</v>
-      </c>
-      <c r="N258">
-        <v>1</v>
-      </c>
-      <c r="O258" t="s">
-        <v>22</v>
-      </c>
-      <c r="P258" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q258" t="s">
-        <v>19</v>
-      </c>
-      <c r="R258" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S258">
-        <v>45</v>
-      </c>
-      <c r="T258" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>2023</v>
-      </c>
-      <c r="B259">
-        <v>122</v>
-      </c>
-      <c r="C259" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D259" s="17">
-        <v>40</v>
-      </c>
-      <c r="E259" s="17">
-        <v>23</v>
-      </c>
-      <c r="F259" t="s">
-        <v>294</v>
-      </c>
-      <c r="G259">
-        <v>23.166064852151099</v>
-      </c>
-      <c r="H259" s="4">
-        <v>45104.314814814818</v>
-      </c>
-      <c r="I259" t="s">
-        <v>77</v>
-      </c>
-      <c r="J259" s="2">
-        <v>3</v>
-      </c>
-      <c r="K259" s="4">
-        <v>45104.314814814818</v>
-      </c>
-      <c r="L259" t="s">
-        <v>77</v>
-      </c>
-      <c r="M259" t="s">
-        <v>18</v>
-      </c>
-      <c r="N259">
-        <v>1</v>
-      </c>
-      <c r="O259" t="s">
-        <v>19</v>
-      </c>
-      <c r="P259" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q259" t="s">
-        <v>19</v>
-      </c>
-      <c r="R259" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S259">
-        <v>45</v>
-      </c>
-      <c r="T259" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>2023</v>
-      </c>
-      <c r="B260">
-        <v>123</v>
-      </c>
-      <c r="C260" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D260" s="17">
-        <v>40</v>
-      </c>
-      <c r="E260" s="17">
-        <v>23</v>
-      </c>
-      <c r="F260" t="s">
-        <v>295</v>
-      </c>
-      <c r="G260">
-        <v>32.218774278702298</v>
-      </c>
-      <c r="H260" s="4">
-        <v>45104.318831018521</v>
-      </c>
-      <c r="I260" t="s">
-        <v>77</v>
-      </c>
-      <c r="J260" s="2">
-        <v>3</v>
-      </c>
-      <c r="K260" s="4">
-        <v>45104.318831018521</v>
-      </c>
-      <c r="L260" t="s">
-        <v>77</v>
-      </c>
-      <c r="M260" t="s">
-        <v>18</v>
-      </c>
-      <c r="N260">
-        <v>3</v>
-      </c>
-      <c r="O260" t="s">
-        <v>19</v>
-      </c>
-      <c r="P260" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>19</v>
-      </c>
-      <c r="R260" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S260">
-        <v>45</v>
-      </c>
-      <c r="T260" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>2023</v>
-      </c>
-      <c r="B261">
-        <v>124</v>
-      </c>
-      <c r="C261" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D261" s="17">
-        <v>40</v>
-      </c>
-      <c r="E261" s="17">
-        <v>23</v>
-      </c>
-      <c r="F261" t="s">
-        <v>296</v>
-      </c>
-      <c r="G261">
-        <v>20.113849991299698</v>
-      </c>
-      <c r="H261" s="4">
-        <v>45104.320300925923</v>
-      </c>
-      <c r="I261" t="s">
-        <v>77</v>
-      </c>
-      <c r="J261" s="2">
-        <v>3</v>
-      </c>
-      <c r="K261" s="4">
-        <v>45104.320300925923</v>
-      </c>
-      <c r="L261" t="s">
-        <v>77</v>
-      </c>
-      <c r="M261" t="s">
-        <v>18</v>
-      </c>
-      <c r="N261">
-        <v>1</v>
-      </c>
-      <c r="O261" t="s">
-        <v>22</v>
-      </c>
-      <c r="P261" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q261" t="s">
-        <v>19</v>
-      </c>
-      <c r="R261" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S261">
-        <v>45</v>
-      </c>
-      <c r="T261" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>2023</v>
-      </c>
-      <c r="B262">
-        <v>125</v>
-      </c>
-      <c r="C262" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D262" s="17">
-        <v>40</v>
-      </c>
-      <c r="E262" s="17">
-        <v>23</v>
-      </c>
-      <c r="F262" t="s">
-        <v>297</v>
-      </c>
-      <c r="G262">
-        <v>152.408415143615</v>
-      </c>
-      <c r="H262" s="4">
-        <v>45104.368784722225</v>
-      </c>
-      <c r="I262" t="s">
-        <v>77</v>
-      </c>
-      <c r="J262" s="2">
-        <v>3</v>
-      </c>
-      <c r="K262" s="4">
-        <v>45104.37903935185</v>
-      </c>
-      <c r="L262" t="s">
-        <v>77</v>
-      </c>
-      <c r="M262" t="s">
-        <v>18</v>
-      </c>
-      <c r="N262">
-        <v>3</v>
-      </c>
-      <c r="O262" t="s">
-        <v>22</v>
-      </c>
-      <c r="P262" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q262" t="s">
-        <v>22</v>
-      </c>
-      <c r="R262" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S262">
-        <v>47</v>
-      </c>
-      <c r="T262" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>2023</v>
-      </c>
-      <c r="B263">
-        <v>126</v>
-      </c>
-      <c r="C263" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D263" s="17">
-        <v>40</v>
-      </c>
-      <c r="E263" s="17">
-        <v>23</v>
-      </c>
-      <c r="F263" t="s">
-        <v>298</v>
-      </c>
-      <c r="G263">
-        <v>4.1465634961718099</v>
-      </c>
-      <c r="H263" s="4">
-        <v>45104.370104166665</v>
-      </c>
-      <c r="I263" t="s">
-        <v>77</v>
-      </c>
-      <c r="J263" s="2">
-        <v>3</v>
-      </c>
-      <c r="K263" s="4">
-        <v>45104.370104166665</v>
-      </c>
-      <c r="L263" t="s">
-        <v>77</v>
-      </c>
-      <c r="M263" t="s">
-        <v>18</v>
-      </c>
-      <c r="N263">
-        <v>1</v>
-      </c>
-      <c r="O263" t="s">
-        <v>19</v>
-      </c>
-      <c r="P263" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q263" t="s">
-        <v>19</v>
-      </c>
-      <c r="R263" t="s">
-        <v>21</v>
-      </c>
-      <c r="S263">
-        <v>47</v>
-      </c>
-      <c r="T263" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>2023</v>
-      </c>
-      <c r="B264">
-        <v>127</v>
-      </c>
-      <c r="C264" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D264" s="17">
-        <v>40</v>
-      </c>
-      <c r="E264" s="17">
-        <v>23</v>
-      </c>
-      <c r="F264" t="s">
-        <v>299</v>
-      </c>
-      <c r="G264">
-        <v>32.567642428405499</v>
-      </c>
-      <c r="H264" s="4">
-        <v>45104.370995370373</v>
-      </c>
-      <c r="I264" t="s">
-        <v>77</v>
-      </c>
-      <c r="J264" s="2">
-        <v>3</v>
-      </c>
-      <c r="K264" s="4">
-        <v>45104.370995370373</v>
-      </c>
-      <c r="L264" t="s">
-        <v>77</v>
-      </c>
-      <c r="M264" t="s">
-        <v>18</v>
-      </c>
-      <c r="N264">
-        <v>1</v>
-      </c>
-      <c r="O264" t="s">
-        <v>19</v>
-      </c>
-      <c r="P264" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q264" t="s">
-        <v>19</v>
-      </c>
-      <c r="R264" t="s">
-        <v>21</v>
-      </c>
-      <c r="S264">
-        <v>47</v>
-      </c>
-      <c r="T264" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>2023</v>
-      </c>
-      <c r="B265">
-        <v>128</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D265" s="17">
-        <v>40</v>
-      </c>
-      <c r="E265" s="17">
-        <v>23</v>
-      </c>
-      <c r="F265" t="s">
-        <v>300</v>
-      </c>
-      <c r="G265">
-        <v>26.131692137161</v>
-      </c>
-      <c r="H265" s="4">
-        <v>45104.373680555553</v>
-      </c>
-      <c r="I265" t="s">
-        <v>77</v>
-      </c>
-      <c r="J265" s="2">
-        <v>3</v>
-      </c>
-      <c r="K265" s="4">
-        <v>45104.373680555553</v>
-      </c>
-      <c r="L265" t="s">
-        <v>77</v>
-      </c>
-      <c r="M265" t="s">
-        <v>18</v>
-      </c>
-      <c r="N265">
-        <v>1</v>
-      </c>
-      <c r="O265" t="s">
-        <v>19</v>
-      </c>
-      <c r="P265" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q265" t="s">
-        <v>22</v>
-      </c>
-      <c r="R265" t="s">
-        <v>21</v>
-      </c>
-      <c r="S265">
-        <v>47</v>
-      </c>
-      <c r="T265" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>2023</v>
-      </c>
-      <c r="B266">
-        <v>129</v>
-      </c>
-      <c r="C266" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D266" s="17">
-        <v>40</v>
-      </c>
-      <c r="E266" s="17">
-        <v>23</v>
-      </c>
-      <c r="F266" t="s">
-        <v>301</v>
-      </c>
-      <c r="G266">
-        <v>56.107735622264499</v>
-      </c>
-      <c r="H266" s="4">
-        <v>45104.374490740738</v>
-      </c>
-      <c r="I266" t="s">
-        <v>77</v>
-      </c>
-      <c r="J266" s="2">
-        <v>3</v>
-      </c>
-      <c r="K266" s="4">
-        <v>45104.374490740738</v>
-      </c>
-      <c r="L266" t="s">
-        <v>77</v>
-      </c>
-      <c r="M266" t="s">
-        <v>18</v>
-      </c>
-      <c r="N266">
-        <v>3</v>
-      </c>
-      <c r="O266" t="s">
-        <v>19</v>
-      </c>
-      <c r="P266" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q266" t="s">
-        <v>22</v>
-      </c>
-      <c r="R266" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S266">
-        <v>47</v>
-      </c>
-      <c r="T266" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>2023</v>
-      </c>
-      <c r="B267">
-        <v>130</v>
-      </c>
-      <c r="C267" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D267" s="17">
-        <v>40</v>
-      </c>
-      <c r="E267" s="17">
-        <v>23</v>
-      </c>
-      <c r="F267" t="s">
-        <v>302</v>
-      </c>
-      <c r="G267">
-        <v>66.305523476281493</v>
-      </c>
-      <c r="H267" s="4">
-        <v>45104.375231481485</v>
-      </c>
-      <c r="I267" t="s">
-        <v>77</v>
-      </c>
-      <c r="J267" s="2">
-        <v>3</v>
-      </c>
-      <c r="K267" s="4">
-        <v>45104.375231481485</v>
-      </c>
-      <c r="L267" t="s">
-        <v>77</v>
-      </c>
-      <c r="M267" t="s">
-        <v>18</v>
-      </c>
-      <c r="N267">
-        <v>3</v>
-      </c>
-      <c r="O267" t="s">
-        <v>19</v>
-      </c>
-      <c r="P267" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q267" t="s">
-        <v>22</v>
-      </c>
-      <c r="R267" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S267">
-        <v>47</v>
-      </c>
-      <c r="T267" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>2023</v>
-      </c>
-      <c r="B268">
-        <v>131</v>
-      </c>
-      <c r="C268" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D268" s="17">
-        <v>40</v>
-      </c>
-      <c r="E268" s="17">
-        <v>23</v>
-      </c>
-      <c r="F268" t="s">
-        <v>303</v>
-      </c>
-      <c r="G268">
-        <v>8.8167979511779606</v>
-      </c>
-      <c r="H268" s="4">
-        <v>45104.375625000001</v>
-      </c>
-      <c r="I268" t="s">
-        <v>77</v>
-      </c>
-      <c r="J268" s="2">
-        <v>3</v>
-      </c>
-      <c r="K268" s="4">
-        <v>45104.375625000001</v>
-      </c>
-      <c r="L268" t="s">
-        <v>77</v>
-      </c>
-      <c r="M268" t="s">
-        <v>18</v>
-      </c>
-      <c r="N268">
-        <v>2</v>
-      </c>
-      <c r="O268" t="s">
-        <v>19</v>
-      </c>
-      <c r="P268" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q268" t="s">
-        <v>19</v>
-      </c>
-      <c r="R268" t="s">
-        <v>21</v>
-      </c>
-      <c r="S268">
-        <v>47</v>
-      </c>
-      <c r="T268" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>2023</v>
-      </c>
-      <c r="B269">
-        <v>132</v>
-      </c>
-      <c r="C269" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D269" s="17">
-        <v>40</v>
-      </c>
-      <c r="E269" s="17">
-        <v>23</v>
-      </c>
-      <c r="F269" t="s">
-        <v>304</v>
-      </c>
-      <c r="G269">
-        <v>5.5073880543090397</v>
-      </c>
-      <c r="H269" s="4">
-        <v>45104.376238425924</v>
-      </c>
-      <c r="I269" t="s">
-        <v>77</v>
-      </c>
-      <c r="J269" s="2">
-        <v>3</v>
-      </c>
-      <c r="K269" s="4">
-        <v>45104.376238425924</v>
-      </c>
-      <c r="L269" t="s">
-        <v>77</v>
-      </c>
-      <c r="M269" t="s">
-        <v>18</v>
-      </c>
-      <c r="N269">
-        <v>1</v>
-      </c>
-      <c r="O269" t="s">
-        <v>19</v>
-      </c>
-      <c r="P269" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q269" t="s">
-        <v>19</v>
-      </c>
-      <c r="R269" t="s">
-        <v>21</v>
-      </c>
-      <c r="S269">
-        <v>47</v>
-      </c>
-      <c r="T269" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>2023</v>
-      </c>
-      <c r="B270">
-        <v>133</v>
-      </c>
-      <c r="C270" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D270" s="17">
-        <v>40</v>
-      </c>
-      <c r="E270" s="17">
-        <v>23</v>
-      </c>
-      <c r="F270" t="s">
-        <v>305</v>
-      </c>
-      <c r="G270">
-        <v>5.3809540630113597</v>
-      </c>
-      <c r="H270" s="4">
-        <v>45104.376863425925</v>
-      </c>
-      <c r="I270" t="s">
-        <v>77</v>
-      </c>
-      <c r="J270" s="2">
-        <v>3</v>
-      </c>
-      <c r="K270" s="4">
-        <v>45104.376863425925</v>
-      </c>
-      <c r="L270" t="s">
-        <v>77</v>
-      </c>
-      <c r="M270" t="s">
-        <v>18</v>
-      </c>
-      <c r="N270">
-        <v>1</v>
-      </c>
-      <c r="O270" t="s">
-        <v>19</v>
-      </c>
-      <c r="P270" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q270" t="s">
-        <v>19</v>
-      </c>
-      <c r="R270" t="s">
-        <v>21</v>
-      </c>
-      <c r="S270">
-        <v>47</v>
-      </c>
-      <c r="T270" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>2023</v>
-      </c>
-      <c r="B271">
-        <v>134</v>
-      </c>
-      <c r="C271" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D271" s="17">
-        <v>40</v>
-      </c>
-      <c r="E271" s="17">
-        <v>23</v>
-      </c>
-      <c r="F271" t="s">
-        <v>306</v>
-      </c>
-      <c r="G271">
-        <v>2.8431655127300299</v>
-      </c>
-      <c r="H271" s="4">
-        <v>45104.377303240741</v>
-      </c>
-      <c r="I271" t="s">
-        <v>77</v>
-      </c>
-      <c r="J271" s="2">
-        <v>3</v>
-      </c>
-      <c r="K271" s="4">
-        <v>45104.377303240741</v>
-      </c>
-      <c r="L271" t="s">
-        <v>77</v>
-      </c>
-      <c r="M271" t="s">
-        <v>18</v>
-      </c>
-      <c r="N271">
-        <v>1</v>
-      </c>
-      <c r="O271" t="s">
-        <v>19</v>
-      </c>
-      <c r="P271" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q271" t="s">
-        <v>19</v>
-      </c>
-      <c r="R271" t="s">
-        <v>21</v>
-      </c>
-      <c r="S271">
-        <v>47</v>
-      </c>
-      <c r="T271" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>2023</v>
-      </c>
-      <c r="B272">
-        <v>135</v>
-      </c>
-      <c r="C272" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D272" s="17">
-        <v>40</v>
-      </c>
-      <c r="E272" s="17">
-        <v>23</v>
-      </c>
-      <c r="F272" t="s">
-        <v>307</v>
-      </c>
-      <c r="G272">
-        <v>187.858397897505</v>
-      </c>
-      <c r="H272" s="4">
-        <v>45104.378252314818</v>
-      </c>
-      <c r="I272" t="s">
-        <v>77</v>
-      </c>
-      <c r="J272" s="2">
-        <v>3</v>
-      </c>
-      <c r="K272" s="4">
-        <v>45104.378634259258</v>
-      </c>
-      <c r="L272" t="s">
-        <v>77</v>
-      </c>
-      <c r="M272" t="s">
-        <v>18</v>
-      </c>
-      <c r="N272">
-        <v>3</v>
-      </c>
-      <c r="O272" t="s">
-        <v>22</v>
-      </c>
-      <c r="P272" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q272" t="s">
-        <v>22</v>
-      </c>
-      <c r="R272" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S272">
-        <v>47</v>
-      </c>
-      <c r="T272" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>2023</v>
-      </c>
-      <c r="B273">
-        <v>136</v>
-      </c>
-      <c r="C273" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D273" s="17">
-        <v>40</v>
-      </c>
-      <c r="E273" s="17">
-        <v>23</v>
-      </c>
-      <c r="F273" t="s">
-        <v>308</v>
-      </c>
-      <c r="G273">
-        <v>23.954076793263901</v>
-      </c>
-      <c r="H273" s="4">
-        <v>45104.40152777778</v>
-      </c>
-      <c r="I273" t="s">
-        <v>77</v>
-      </c>
-      <c r="J273" s="2">
-        <v>3</v>
-      </c>
-      <c r="K273" s="4">
-        <v>45104.40152777778</v>
-      </c>
-      <c r="L273" t="s">
-        <v>77</v>
-      </c>
-      <c r="M273" t="s">
-        <v>18</v>
-      </c>
-      <c r="N273">
-        <v>1</v>
-      </c>
-      <c r="O273" t="s">
-        <v>19</v>
-      </c>
-      <c r="P273" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q273" t="s">
-        <v>19</v>
-      </c>
-      <c r="R273" t="s">
-        <v>21</v>
-      </c>
-      <c r="S273">
-        <v>50</v>
-      </c>
-      <c r="T273" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>2023</v>
-      </c>
-      <c r="B274">
-        <v>137</v>
-      </c>
-      <c r="C274" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D274" s="17">
-        <v>40</v>
-      </c>
-      <c r="E274" s="17">
-        <v>23</v>
-      </c>
-      <c r="F274" t="s">
-        <v>309</v>
-      </c>
-      <c r="G274">
-        <v>4.7739992630984096</v>
-      </c>
-      <c r="H274" s="4">
-        <v>45104.40215277778</v>
-      </c>
-      <c r="I274" t="s">
-        <v>77</v>
-      </c>
-      <c r="J274" s="2">
-        <v>3</v>
-      </c>
-      <c r="K274" s="4">
-        <v>45104.40215277778</v>
-      </c>
-      <c r="L274" t="s">
-        <v>77</v>
-      </c>
-      <c r="M274" t="s">
-        <v>18</v>
-      </c>
-      <c r="N274">
-        <v>1</v>
-      </c>
-      <c r="O274" t="s">
-        <v>19</v>
-      </c>
-      <c r="P274" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q274" t="s">
-        <v>19</v>
-      </c>
-      <c r="R274" t="s">
-        <v>21</v>
-      </c>
-      <c r="S274">
-        <v>50</v>
-      </c>
-      <c r="T274" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>2023</v>
-      </c>
-      <c r="B275">
-        <v>138</v>
-      </c>
-      <c r="C275" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D275" s="17">
-        <v>40</v>
-      </c>
-      <c r="E275" s="17">
-        <v>23</v>
-      </c>
-      <c r="F275" t="s">
-        <v>310</v>
-      </c>
-      <c r="G275">
-        <v>82.492131428896897</v>
-      </c>
-      <c r="H275" s="4">
-        <v>45104.403113425928</v>
-      </c>
-      <c r="I275" t="s">
-        <v>77</v>
-      </c>
-      <c r="J275" s="2">
-        <v>3</v>
-      </c>
-      <c r="K275" s="4">
-        <v>45104.403113425928</v>
-      </c>
-      <c r="L275" t="s">
-        <v>77</v>
-      </c>
-      <c r="M275" t="s">
-        <v>18</v>
-      </c>
-      <c r="N275">
-        <v>3</v>
-      </c>
-      <c r="O275" t="s">
-        <v>22</v>
-      </c>
-      <c r="P275" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q275" t="s">
-        <v>22</v>
-      </c>
-      <c r="R275" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S275">
-        <v>50</v>
-      </c>
-      <c r="T275" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>2023</v>
-      </c>
-      <c r="B276">
-        <v>139</v>
-      </c>
-      <c r="C276" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D276" s="17">
-        <v>40</v>
-      </c>
-      <c r="E276" s="17">
-        <v>23</v>
-      </c>
-      <c r="F276" t="s">
-        <v>311</v>
-      </c>
-      <c r="G276">
-        <v>1.5202103597102501</v>
-      </c>
-      <c r="H276" s="4">
-        <v>45104.403599537036</v>
-      </c>
-      <c r="I276" t="s">
-        <v>77</v>
-      </c>
-      <c r="J276" s="2">
-        <v>3</v>
-      </c>
-      <c r="K276" s="4">
-        <v>45104.403599537036</v>
-      </c>
-      <c r="L276" t="s">
-        <v>77</v>
-      </c>
-      <c r="M276" t="s">
-        <v>18</v>
-      </c>
-      <c r="N276">
-        <v>1</v>
-      </c>
-      <c r="O276" t="s">
-        <v>19</v>
-      </c>
-      <c r="P276" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q276" t="s">
-        <v>19</v>
-      </c>
-      <c r="R276" t="s">
-        <v>21</v>
-      </c>
-      <c r="S276">
-        <v>50</v>
-      </c>
-      <c r="T276" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>2023</v>
-      </c>
-      <c r="B277">
-        <v>140</v>
-      </c>
-      <c r="C277" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D277" s="17">
-        <v>40</v>
-      </c>
-      <c r="E277" s="17">
-        <v>23</v>
-      </c>
-      <c r="F277" t="s">
-        <v>312</v>
-      </c>
-      <c r="G277">
-        <v>1.47989206100796</v>
-      </c>
-      <c r="H277" s="4">
-        <v>45104.404062499998</v>
-      </c>
-      <c r="I277" t="s">
-        <v>77</v>
-      </c>
-      <c r="J277" s="2">
-        <v>3</v>
-      </c>
-      <c r="K277" s="4">
-        <v>45104.404062499998</v>
-      </c>
-      <c r="L277" t="s">
-        <v>77</v>
-      </c>
-      <c r="M277" t="s">
-        <v>18</v>
-      </c>
-      <c r="N277">
-        <v>1</v>
-      </c>
-      <c r="O277" t="s">
-        <v>19</v>
-      </c>
-      <c r="P277" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q277" t="s">
-        <v>19</v>
-      </c>
-      <c r="R277" t="s">
-        <v>21</v>
-      </c>
-      <c r="S277">
-        <v>50</v>
-      </c>
-      <c r="T277" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>2023</v>
-      </c>
-      <c r="B278">
-        <v>141</v>
-      </c>
-      <c r="C278" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D278" s="17">
-        <v>40</v>
-      </c>
-      <c r="E278" s="17">
-        <v>23</v>
-      </c>
-      <c r="F278" t="s">
-        <v>313</v>
-      </c>
-      <c r="G278">
-        <v>112.00808346401401</v>
-      </c>
-      <c r="H278" s="4">
-        <v>45104.405138888891</v>
-      </c>
-      <c r="I278" t="s">
-        <v>77</v>
-      </c>
-      <c r="J278" s="2">
-        <v>3</v>
-      </c>
-      <c r="K278" s="4">
-        <v>45104.405138888891</v>
-      </c>
-      <c r="L278" t="s">
-        <v>77</v>
-      </c>
-      <c r="M278" t="s">
-        <v>18</v>
-      </c>
-      <c r="N278">
-        <v>2</v>
-      </c>
-      <c r="O278" t="s">
-        <v>19</v>
-      </c>
-      <c r="P278" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q278" t="s">
-        <v>22</v>
-      </c>
-      <c r="R278" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S278">
-        <v>50</v>
-      </c>
-      <c r="T278" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>2023</v>
-      </c>
-      <c r="B279">
-        <v>142</v>
-      </c>
-      <c r="C279" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D279" s="17">
-        <v>40</v>
-      </c>
-      <c r="E279" s="17">
-        <v>23</v>
-      </c>
-      <c r="F279" t="s">
-        <v>314</v>
-      </c>
-      <c r="G279">
-        <v>174.10985800563299</v>
-      </c>
-      <c r="H279" s="4">
-        <v>45104.406458333331</v>
-      </c>
-      <c r="I279" t="s">
-        <v>77</v>
-      </c>
-      <c r="J279" s="2">
-        <v>3</v>
-      </c>
-      <c r="K279" s="4">
-        <v>45104.406458333331</v>
-      </c>
-      <c r="L279" t="s">
-        <v>77</v>
-      </c>
-      <c r="M279" t="s">
-        <v>18</v>
-      </c>
-      <c r="N279">
-        <v>3</v>
-      </c>
-      <c r="O279" t="s">
-        <v>22</v>
-      </c>
-      <c r="P279" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q279" t="s">
-        <v>22</v>
-      </c>
-      <c r="R279" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S279">
-        <v>50</v>
-      </c>
-      <c r="T279" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>2023</v>
-      </c>
-      <c r="B280">
-        <v>143</v>
-      </c>
-      <c r="C280" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D280" s="17">
-        <v>40</v>
-      </c>
-      <c r="E280" s="17">
-        <v>23</v>
-      </c>
-      <c r="F280" t="s">
-        <v>315</v>
-      </c>
-      <c r="G280">
-        <v>1.3342206271257799</v>
-      </c>
-      <c r="H280" s="4">
-        <v>45104.407106481478</v>
-      </c>
-      <c r="I280" t="s">
-        <v>77</v>
-      </c>
-      <c r="J280" s="2">
-        <v>3</v>
-      </c>
-      <c r="K280" s="4">
-        <v>45104.407106481478</v>
-      </c>
-      <c r="L280" t="s">
-        <v>77</v>
-      </c>
-      <c r="M280" t="s">
-        <v>18</v>
-      </c>
-      <c r="N280">
-        <v>1</v>
-      </c>
-      <c r="O280" t="s">
-        <v>19</v>
-      </c>
-      <c r="P280" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q280" t="s">
-        <v>19</v>
-      </c>
-      <c r="R280" t="s">
-        <v>21</v>
-      </c>
-      <c r="S280">
-        <v>50</v>
-      </c>
-      <c r="T280" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>2023</v>
-      </c>
-      <c r="B281">
-        <v>144</v>
-      </c>
-      <c r="C281" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D281" s="17">
-        <v>40</v>
-      </c>
-      <c r="E281" s="17">
-        <v>23</v>
-      </c>
-      <c r="F281" t="s">
-        <v>316</v>
-      </c>
-      <c r="G281">
-        <v>132.45192596639799</v>
-      </c>
-      <c r="H281" s="4">
-        <v>45104.408310185187</v>
-      </c>
-      <c r="I281" t="s">
-        <v>77</v>
-      </c>
-      <c r="J281" s="2">
-        <v>3</v>
-      </c>
-      <c r="K281" s="4">
-        <v>45104.408310185187</v>
-      </c>
-      <c r="L281" t="s">
-        <v>77</v>
-      </c>
-      <c r="M281" t="s">
-        <v>18</v>
-      </c>
-      <c r="N281">
-        <v>2</v>
-      </c>
-      <c r="O281" t="s">
-        <v>22</v>
-      </c>
-      <c r="P281" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q281" t="s">
-        <v>22</v>
-      </c>
-      <c r="R281" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S281">
-        <v>50</v>
-      </c>
-      <c r="T281" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>2023</v>
-      </c>
-      <c r="B282">
-        <v>145</v>
-      </c>
-      <c r="C282" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D282" s="17">
-        <v>40</v>
-      </c>
-      <c r="E282" s="17">
-        <v>23</v>
-      </c>
-      <c r="F282" t="s">
-        <v>317</v>
-      </c>
-      <c r="G282">
-        <v>14.694004414328299</v>
-      </c>
-      <c r="H282" s="4">
-        <v>45104.408935185187</v>
-      </c>
-      <c r="I282" t="s">
-        <v>77</v>
-      </c>
-      <c r="J282" s="2">
-        <v>3</v>
-      </c>
-      <c r="K282" s="4">
-        <v>45104.408935185187</v>
-      </c>
-      <c r="L282" t="s">
-        <v>77</v>
-      </c>
-      <c r="M282" t="s">
-        <v>18</v>
-      </c>
-      <c r="N282">
-        <v>1</v>
-      </c>
-      <c r="O282" t="s">
-        <v>19</v>
-      </c>
-      <c r="P282" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q282" t="s">
-        <v>19</v>
-      </c>
-      <c r="R282" t="s">
-        <v>21</v>
-      </c>
-      <c r="S282">
-        <v>50</v>
-      </c>
-      <c r="T282" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>2023</v>
-      </c>
-      <c r="B283">
-        <v>146</v>
-      </c>
-      <c r="C283" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D283" s="17">
-        <v>40</v>
-      </c>
-      <c r="E283" s="17">
-        <v>23</v>
-      </c>
-      <c r="F283" t="s">
-        <v>318</v>
-      </c>
-      <c r="G283">
-        <v>30.086610211197399</v>
-      </c>
-      <c r="H283" s="4">
-        <v>45104.409675925926</v>
-      </c>
-      <c r="I283" t="s">
-        <v>77</v>
-      </c>
-      <c r="J283" s="2">
-        <v>3</v>
-      </c>
-      <c r="K283" s="4">
-        <v>45104.409675925926</v>
-      </c>
-      <c r="L283" t="s">
-        <v>77</v>
-      </c>
-      <c r="M283" t="s">
-        <v>18</v>
-      </c>
-      <c r="N283">
-        <v>1</v>
-      </c>
-      <c r="O283" t="s">
-        <v>19</v>
-      </c>
-      <c r="P283" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q283" t="s">
-        <v>22</v>
-      </c>
-      <c r="R283" t="s">
-        <v>21</v>
-      </c>
-      <c r="S283">
-        <v>50</v>
-      </c>
-      <c r="T283" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>2023</v>
-      </c>
-      <c r="B284">
-        <v>147</v>
-      </c>
-      <c r="C284" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D284" s="17">
-        <v>40</v>
-      </c>
-      <c r="E284" s="17">
-        <v>23</v>
-      </c>
-      <c r="F284" t="s">
-        <v>319</v>
-      </c>
-      <c r="G284">
-        <v>60.2123807600559</v>
-      </c>
-      <c r="H284" s="4">
-        <v>45104.41070601852</v>
-      </c>
-      <c r="I284" t="s">
-        <v>77</v>
-      </c>
-      <c r="J284" s="2">
-        <v>3</v>
-      </c>
-      <c r="K284" s="4">
-        <v>45104.41070601852</v>
-      </c>
-      <c r="L284" t="s">
-        <v>77</v>
-      </c>
-      <c r="M284" t="s">
-        <v>18</v>
-      </c>
-      <c r="N284">
-        <v>1</v>
-      </c>
-      <c r="O284" t="s">
-        <v>19</v>
-      </c>
-      <c r="P284" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q284" t="s">
-        <v>22</v>
-      </c>
-      <c r="R284" t="s">
-        <v>21</v>
-      </c>
-      <c r="S284">
-        <v>50</v>
-      </c>
-      <c r="T284" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>2023</v>
-      </c>
-      <c r="B285">
-        <v>148</v>
-      </c>
-      <c r="C285" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D285" s="17">
-        <v>40</v>
-      </c>
-      <c r="E285" s="17">
-        <v>23</v>
-      </c>
-      <c r="F285" t="s">
-        <v>320</v>
-      </c>
-      <c r="G285">
-        <v>3.5620070302865998</v>
-      </c>
-      <c r="H285" s="4">
-        <v>45104.411087962966</v>
-      </c>
-      <c r="I285" t="s">
-        <v>77</v>
-      </c>
-      <c r="J285" s="2">
-        <v>3</v>
-      </c>
-      <c r="K285" s="4">
-        <v>45104.411087962966</v>
-      </c>
-      <c r="L285" t="s">
-        <v>77</v>
-      </c>
-      <c r="M285" t="s">
-        <v>18</v>
-      </c>
-      <c r="N285">
-        <v>1</v>
-      </c>
-      <c r="O285" t="s">
-        <v>19</v>
-      </c>
-      <c r="P285" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>19</v>
-      </c>
-      <c r="R285" t="s">
-        <v>21</v>
-      </c>
-      <c r="S285">
-        <v>50</v>
-      </c>
-      <c r="T285" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <f>94-147</f>
+        <v>-53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T285" xr:uid="{7185A8EA-8C28-4E3D-A546-D0F8DB7A2AC0}">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:V232" xr:uid="{7185A8EA-8C28-4E3D-A546-D0F8DB7A2AC0}">
+    <filterColumn colId="19">
       <filters>
-        <filter val="Heby"/>
+        <filter val="Ja"/>
       </filters>
     </filterColumn>
   </autoFilter>
